--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_5_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_5_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1167362.6644925</v>
+        <v>1129326.048311224</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7956703.636481808</v>
+        <v>7956703.636481811</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>58.51163626885506</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G2" t="n">
-        <v>274.2838073416025</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0.6592771345624158</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>274.2838073416025</v>
+        <v>219.4740383149756</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>110.4625155221328</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>212.5261005285614</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>92.90776351907881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>84.37801704792682</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>72.16951724514814</v>
+        <v>20.21018324455067</v>
       </c>
       <c r="G5" t="n">
         <v>14.85476540383092</v>
@@ -916,7 +916,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="I5" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0.6592771345624158</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>2.329333765880874</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.8872571627047</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>17.27905463269151</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>7.293863480540836</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7812714875491</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>274.2838073416025</v>
+        <v>168.1553481697934</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>6.638667882448604</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>159.5028127661658</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1314,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H11" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>63.64170646647291</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
@@ -1435,7 +1435,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>174.6924936692942</v>
+        <v>260.0322694547156</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3570519053243</v>
+        <v>53.66853612673689</v>
       </c>
       <c r="H12" t="n">
         <v>104.0288287853823</v>
       </c>
       <c r="I12" t="n">
-        <v>63.56783007605711</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>53.33473024000173</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S12" t="n">
         <v>156.5880156630749</v>
@@ -1505,7 +1505,7 @@
         <v>195.6974464808964</v>
       </c>
       <c r="U12" t="n">
-        <v>79.35700500862873</v>
+        <v>224.6133508632724</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>112.2252571302025</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.3539737549178</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>83.58419887257701</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H14" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>125.7350209721469</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.67567668018398</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -1691,7 +1691,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8560777200018526</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
         <v>156.0334337071738</v>
@@ -1703,10 +1703,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H15" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I15" t="n">
-        <v>63.56783007605711</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>53.33473024000173</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S15" t="n">
         <v>156.5880156630749</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>133.3973399097301</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.3539737549178</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>50.42797305210066</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,13 +1846,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>33.05105288265352</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>407.2938634805408</v>
@@ -1861,10 +1861,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H17" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>186.6995391317826</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H18" t="n">
-        <v>22.34031300679584</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>53.33473024000173</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>156.5880156630749</v>
       </c>
       <c r="T18" t="n">
-        <v>195.6974464808964</v>
+        <v>167.3436609423107</v>
       </c>
       <c r="U18" t="n">
         <v>224.6133508632724</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>117.7011067713544</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>169.1186764497905</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>97.70778362415464</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2114059570733</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>63.64170646647291</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>370.8615991311694</v>
@@ -2177,10 +2177,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H21" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I21" t="n">
-        <v>63.56783007605711</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S21" t="n">
-        <v>64.66640004843251</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T21" t="n">
         <v>195.6974464808964</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>123.8960088696168</v>
+        <v>103.2683520112252</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>136.1596577805781</v>
       </c>
       <c r="E23" t="n">
         <v>383.1180357552875</v>
@@ -2332,10 +2332,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>63.64170646647293</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0.1553719568703172</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H24" t="n">
-        <v>22.34031300679539</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2487,19 +2487,19 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>112.2252571302025</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>49.3539737549178</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>50.42797305210066</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>258.4748997246012</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>407.2938634805408</v>
@@ -2572,7 +2572,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H26" t="n">
-        <v>268.0715367748559</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T26" t="n">
         <v>217.5149286494106</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I27" t="n">
-        <v>22.34031300679495</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>216.318306103545</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>35.69196057755455</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H29" t="n">
-        <v>156.1466190479589</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>63.64170646647293</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>128.981732669668</v>
       </c>
       <c r="Y29" t="n">
         <v>386.6870717512358</v>
@@ -2873,7 +2873,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>79.10396831275835</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
@@ -2888,10 +2888,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H30" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I30" t="n">
-        <v>63.56783007605711</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>53.33473024000173</v>
       </c>
       <c r="S30" t="n">
         <v>156.5880156630749</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>117.7011067713544</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>177.6533237264606</v>
       </c>
       <c r="W31" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
         <v>218.7486738677682</v>
@@ -3031,19 +3031,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>118.0392657547698</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>63.64170646647293</v>
       </c>
       <c r="S32" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>300.5164829413866</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.6870717512358</v>
@@ -3116,7 +3116,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>74.34491792858643</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
@@ -3125,7 +3125,7 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H33" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679539</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>10.51091771937534</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.5841988725771</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,22 +3271,22 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>10.92690478682872</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I35" t="n">
-        <v>21.91826513713402</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>63.64170646647293</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3350,7 +3350,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>0.8560777200009522</v>
       </c>
       <c r="E36" t="n">
         <v>156.0334337071738</v>
@@ -3359,10 +3359,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H36" t="n">
-        <v>94.12953483606256</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I36" t="n">
         <v>63.56783007605711</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>117.7011067713545</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>190.3615285297117</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>383.1180357552875</v>
@@ -3517,7 +3517,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>63.64170646647293</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>144.8072052897347</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>189.0479268437116</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
         <v>370.8615991311694</v>
@@ -3599,10 +3599,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H39" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I39" t="n">
-        <v>63.56783007605711</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3641,7 +3641,7 @@
         <v>224.6133508632724</v>
       </c>
       <c r="V39" t="n">
-        <v>86.65238518501074</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
         <v>249.98934675</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>48.98175317234265</v>
       </c>
       <c r="E40" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>13.79251614144023</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>305.0017586418266</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>63.64170646647293</v>
+        <v>63.64170646647291</v>
       </c>
       <c r="S41" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3781599023558</v>
+        <v>162.4317205393787</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
         <v>350.5301170005546</v>
@@ -3808,7 +3808,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -3833,10 +3833,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.3570519053243</v>
+        <v>43.4354362906823</v>
       </c>
       <c r="H42" t="n">
-        <v>12.10721317073993</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I42" t="n">
         <v>63.56783007605711</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.696742040683396</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,19 +3942,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.9952185368712</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>177.6533237264607</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>232.987657237892</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>193.2101986524283</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>383.1180357552875</v>
@@ -3991,7 +3991,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>25.76923807275637</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
         <v>146.1124235746456</v>
@@ -4073,10 +4073,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H45" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679539</v>
       </c>
       <c r="I45" t="n">
-        <v>63.56783007605711</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>221.326363588707</v>
+        <v>83.5841988725771</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>566.0629355096959</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="C2" t="n">
-        <v>566.0629355096959</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="D2" t="n">
-        <v>566.0629355096959</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="E2" t="n">
-        <v>566.0629355096959</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="F2" t="n">
-        <v>506.9602726118625</v>
+        <v>37.61345462610935</v>
       </c>
       <c r="G2" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H2" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I2" t="n">
         <v>22.60864108688619</v>
@@ -4333,19 +4333,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>143.2410926494319</v>
+        <v>143.2410926494321</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M2" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O2" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P2" t="n">
         <v>1093.116282134284</v>
@@ -4354,28 +4354,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S2" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T2" t="n">
-        <v>1097.13522936641</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U2" t="n">
-        <v>843.1172863597994</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="V2" t="n">
-        <v>566.0629355096959</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="W2" t="n">
-        <v>566.0629355096959</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="X2" t="n">
-        <v>566.0629355096959</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="Y2" t="n">
-        <v>566.0629355096959</v>
+        <v>44.98099349534252</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>836.2464524680022</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="C3" t="n">
-        <v>663.4933373898193</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="D3" t="n">
-        <v>515.9050307487631</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="E3" t="n">
-        <v>358.2955017516178</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="F3" t="n">
-        <v>358.2955017516178</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="G3" t="n">
         <v>220.8983197263226</v>
@@ -4409,16 +4409,16 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K3" t="n">
-        <v>161.1846636454791</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L3" t="n">
-        <v>409.2622680873972</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M3" t="n">
-        <v>409.2622680873972</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N3" t="n">
         <v>549.5069725377944</v>
@@ -4439,22 +4439,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T3" t="n">
-        <v>1097.13522936641</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U3" t="n">
-        <v>1097.13522936641</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="V3" t="n">
-        <v>1097.13522936641</v>
+        <v>435.5711485430513</v>
       </c>
       <c r="W3" t="n">
-        <v>1097.13522936641</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="X3" t="n">
-        <v>1097.13522936641</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="Y3" t="n">
-        <v>1003.289003589563</v>
+        <v>220.8983197263226</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="D4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="E4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
@@ -4509,31 +4509,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q4" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="R4" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="S4" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="T4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="V4" t="n">
-        <v>202.6630345283467</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="W4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="X4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>594.8635884189121</v>
+        <v>335.0821319858601</v>
       </c>
       <c r="C5" t="n">
-        <v>594.8635884189121</v>
+        <v>335.0821319858601</v>
       </c>
       <c r="D5" t="n">
-        <v>594.8635884189121</v>
+        <v>335.0821319858601</v>
       </c>
       <c r="E5" t="n">
-        <v>594.8635884189121</v>
+        <v>335.0821319858601</v>
       </c>
       <c r="F5" t="n">
-        <v>521.9650861510856</v>
+        <v>314.6678054762129</v>
       </c>
       <c r="G5" t="n">
-        <v>506.9602726118625</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="H5" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I5" t="n">
         <v>22.60864108688619</v>
@@ -4594,25 +4594,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S5" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T5" t="n">
-        <v>871.9179392690156</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="U5" t="n">
-        <v>871.9179392690156</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="V5" t="n">
-        <v>871.9179392690156</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="W5" t="n">
-        <v>871.9179392690156</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="X5" t="n">
-        <v>594.8635884189121</v>
+        <v>612.1364828359636</v>
       </c>
       <c r="Y5" t="n">
-        <v>594.8635884189121</v>
+        <v>335.0821319858601</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>169.25135696049</v>
+        <v>732.2267619188851</v>
       </c>
       <c r="C6" t="n">
-        <v>169.25135696049</v>
+        <v>559.4736468407023</v>
       </c>
       <c r="D6" t="n">
-        <v>169.25135696049</v>
+        <v>411.8853401996462</v>
       </c>
       <c r="E6" t="n">
-        <v>169.25135696049</v>
+        <v>254.2758112025009</v>
       </c>
       <c r="F6" t="n">
-        <v>24.29556697710686</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="G6" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="H6" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
@@ -4649,19 +4649,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>21.9427045873282</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L6" t="n">
-        <v>270.0203090292462</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M6" t="n">
-        <v>541.5612782974326</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="N6" t="n">
-        <v>813.1022475656191</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O6" t="n">
-        <v>1080.98186654294</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P6" t="n">
         <v>1097.13522936641</v>
@@ -4670,28 +4670,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R6" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S6" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T6" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U6" t="n">
-        <v>403.5026004348891</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V6" t="n">
-        <v>169.25135696049</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W6" t="n">
-        <v>169.25135696049</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X6" t="n">
-        <v>169.25135696049</v>
+        <v>899.2693130404456</v>
       </c>
       <c r="Y6" t="n">
-        <v>169.25135696049</v>
+        <v>899.2693130404456</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G7" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="H7" t="n">
         <v>21.9427045873282</v>
@@ -4764,13 +4764,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>599.0896951955497</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="C8" t="n">
-        <v>599.0896951955497</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="D8" t="n">
-        <v>322.0353443454461</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="E8" t="n">
         <v>44.98099349534252</v>
@@ -4807,16 +4807,16 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K8" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L8" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M8" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N8" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O8" t="n">
         <v>984.9899813536997</v>
@@ -4828,28 +4828,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T8" t="n">
-        <v>876.1440460456532</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U8" t="n">
-        <v>876.1440460456532</v>
+        <v>491.8892313856415</v>
       </c>
       <c r="V8" t="n">
-        <v>599.0896951955497</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="W8" t="n">
-        <v>599.0896951955497</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="X8" t="n">
-        <v>599.0896951955497</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="Y8" t="n">
-        <v>599.0896951955497</v>
+        <v>322.0353443454461</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.0456117464099</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C9" t="n">
-        <v>166.0456117464099</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D9" t="n">
-        <v>166.0456117464099</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E9" t="n">
-        <v>166.0456117464099</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F9" t="n">
-        <v>166.0456117464099</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G9" t="n">
-        <v>28.64842972111467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H9" t="n">
         <v>21.9427045873282</v>
@@ -4883,52 +4883,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K9" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L9" t="n">
-        <v>416.655578933882</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M9" t="n">
-        <v>688.1965482020685</v>
+        <v>359.1441712859057</v>
       </c>
       <c r="N9" t="n">
-        <v>748.0774423727912</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O9" t="n">
-        <v>1015.957061350112</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P9" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S9" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T9" t="n">
-        <v>830.8154377838487</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U9" t="n">
-        <v>830.8154377838487</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="V9" t="n">
-        <v>830.8154377838487</v>
+        <v>435.5711485430513</v>
       </c>
       <c r="W9" t="n">
-        <v>578.300946117182</v>
+        <v>183.0566568763846</v>
       </c>
       <c r="X9" t="n">
-        <v>371.7740475227595</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y9" t="n">
-        <v>166.0456117464099</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="C10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="D10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="E10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="F10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="G10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="H10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="I10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
@@ -4983,31 +4983,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="R10" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="S10" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="T10" t="n">
-        <v>202.6630345283467</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="U10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="V10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="W10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="X10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>955.9917057431599</v>
+        <v>1199.39784402123</v>
       </c>
       <c r="C11" t="n">
-        <v>955.9917057431599</v>
+        <v>828.7058281839145</v>
       </c>
       <c r="D11" t="n">
-        <v>955.9917057431599</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="E11" t="n">
-        <v>955.9917057431599</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="F11" t="n">
-        <v>955.9917057431599</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G11" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H11" t="n">
-        <v>209.5242347723813</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I11" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J11" t="n">
         <v>154.6737472370294</v>
       </c>
       <c r="K11" t="n">
-        <v>432.7629010724811</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L11" t="n">
-        <v>829.7261648535828</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M11" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N11" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O11" t="n">
         <v>2113.071138623965</v>
       </c>
       <c r="P11" t="n">
-        <v>2398.44620845943</v>
+        <v>2398.446208459429</v>
       </c>
       <c r="Q11" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R11" t="n">
-        <v>2471.287047559324</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S11" t="n">
-        <v>2292.000716595821</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T11" t="n">
-        <v>2072.288667455002</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U11" t="n">
-        <v>1818.3713342203</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V11" t="n">
-        <v>1486.519595308664</v>
+        <v>2203.719860634023</v>
       </c>
       <c r="W11" t="n">
-        <v>1132.448770055578</v>
+        <v>1849.649035380938</v>
       </c>
       <c r="X11" t="n">
-        <v>955.9917057431599</v>
+        <v>1586.990177345872</v>
       </c>
       <c r="Y11" t="n">
-        <v>955.9917057431599</v>
+        <v>1586.990177345872</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C12" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D12" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E12" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F12" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G12" t="n">
-        <v>220.0009863964076</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I12" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J12" t="n">
-        <v>101.593116369089</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K12" t="n">
-        <v>347.3293325303603</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L12" t="n">
-        <v>738.6016078550219</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.998092112668</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N12" t="n">
-        <v>1786.2755175555</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O12" t="n">
-        <v>2211.066182111575</v>
+        <v>2229.885785662707</v>
       </c>
       <c r="P12" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="Q12" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R12" t="n">
-        <v>2481.69813465677</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S12" t="n">
-        <v>2323.528421865785</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T12" t="n">
-        <v>2125.854233501243</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U12" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V12" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W12" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X12" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y12" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>679.5420961591336</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C13" t="n">
-        <v>679.5420961591336</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D13" t="n">
-        <v>679.5420961591336</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E13" t="n">
-        <v>679.5420961591336</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F13" t="n">
-        <v>566.1832505730705</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G13" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H13" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I13" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J13" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K13" t="n">
         <v>100.3216812543103</v>
       </c>
       <c r="L13" t="n">
-        <v>219.6093352368816</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M13" t="n">
-        <v>355.9743406206217</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N13" t="n">
-        <v>494.2381528619505</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O13" t="n">
-        <v>606.610565557885</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P13" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q13" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R13" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S13" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T13" t="n">
-        <v>679.5420961591336</v>
+        <v>595.1136124494598</v>
       </c>
       <c r="U13" t="n">
-        <v>679.5420961591336</v>
+        <v>306.2026956948922</v>
       </c>
       <c r="V13" t="n">
-        <v>679.5420961591336</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="W13" t="n">
-        <v>679.5420961591336</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X13" t="n">
-        <v>679.5420961591336</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y13" t="n">
-        <v>679.5420961591336</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2067.498784725884</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.806768888568</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="D14" t="n">
-        <v>1336.599968126347</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="E14" t="n">
-        <v>949.6120532220164</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="F14" t="n">
-        <v>538.2041103123792</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G14" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H14" t="n">
-        <v>209.5242347723813</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I14" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J14" t="n">
-        <v>154.6737472370301</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K14" t="n">
-        <v>432.7629010724817</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L14" t="n">
-        <v>829.7261648535828</v>
+        <v>829.7261648535825</v>
       </c>
       <c r="M14" t="n">
-        <v>1286.636576300463</v>
+        <v>1286.636576300462</v>
       </c>
       <c r="N14" t="n">
         <v>1735.423100897411</v>
@@ -5296,34 +5296,34 @@
         <v>2113.071138623965</v>
       </c>
       <c r="P14" t="n">
-        <v>2398.44620845943</v>
+        <v>2398.446208459429</v>
       </c>
       <c r="Q14" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R14" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S14" t="n">
-        <v>2535.57159954566</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T14" t="n">
-        <v>2535.57159954566</v>
+        <v>2229.280196893119</v>
       </c>
       <c r="U14" t="n">
-        <v>2535.57159954566</v>
+        <v>1975.362863658416</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.57159954566</v>
+        <v>1975.362863658416</v>
       </c>
       <c r="W14" t="n">
-        <v>2535.57159954566</v>
+        <v>1621.292038405331</v>
       </c>
       <c r="X14" t="n">
-        <v>2535.57159954566</v>
+        <v>1246.684362515261</v>
       </c>
       <c r="Y14" t="n">
-        <v>2455.091118050525</v>
+        <v>856.0913607463353</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>832.9084402786807</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C15" t="n">
-        <v>660.1553252004978</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D15" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E15" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F15" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G15" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I15" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J15" t="n">
         <v>120.4127199202217</v>
       </c>
       <c r="K15" t="n">
-        <v>366.148936081493</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L15" t="n">
-        <v>757.4212114061547</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M15" t="n">
-        <v>1082.635746712846</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N15" t="n">
-        <v>1620.913172155678</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O15" t="n">
         <v>2045.703836711752</v>
       </c>
       <c r="P15" t="n">
-        <v>2370.209254145838</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q15" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R15" t="n">
-        <v>2481.69813465677</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S15" t="n">
-        <v>2323.528421865785</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T15" t="n">
-        <v>2125.854233501243</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U15" t="n">
-        <v>1898.972060912079</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V15" t="n">
-        <v>1664.72081743768</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W15" t="n">
-        <v>1412.206325771013</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X15" t="n">
-        <v>1205.679427176591</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y15" t="n">
-        <v>999.9509914002412</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>679.5420961591336</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C16" t="n">
-        <v>679.5420961591336</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D16" t="n">
-        <v>679.5420961591336</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E16" t="n">
-        <v>679.5420961591336</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F16" t="n">
-        <v>531.906720997715</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G16" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H16" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I16" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J16" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K16" t="n">
         <v>100.3216812543103</v>
       </c>
       <c r="L16" t="n">
-        <v>219.6093352368816</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M16" t="n">
-        <v>355.9743406206217</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N16" t="n">
-        <v>494.2381528619505</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O16" t="n">
-        <v>606.610565557885</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P16" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q16" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R16" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S16" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T16" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U16" t="n">
-        <v>679.5420961591336</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V16" t="n">
-        <v>679.5420961591336</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W16" t="n">
-        <v>679.5420961591336</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X16" t="n">
-        <v>679.5420961591336</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y16" t="n">
-        <v>679.5420961591336</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2147.979266221019</v>
+        <v>1250.598986168647</v>
       </c>
       <c r="C17" t="n">
-        <v>2114.594364319349</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="D17" t="n">
-        <v>1754.387563557128</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="E17" t="n">
-        <v>1367.399648652797</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F17" t="n">
-        <v>955.9917057431599</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G17" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H17" t="n">
-        <v>209.5242347723813</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I17" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J17" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K17" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L17" t="n">
-        <v>829.7261648535818</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M17" t="n">
-        <v>1286.636576300461</v>
+        <v>1286.636576300462</v>
       </c>
       <c r="N17" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O17" t="n">
         <v>2113.071138623965</v>
       </c>
       <c r="P17" t="n">
-        <v>2398.44620845943</v>
+        <v>2398.446208459429</v>
       </c>
       <c r="Q17" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R17" t="n">
-        <v>2535.57159954566</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S17" t="n">
-        <v>2535.57159954566</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T17" t="n">
-        <v>2535.57159954566</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U17" t="n">
-        <v>2535.57159954566</v>
+        <v>2217.36971432462</v>
       </c>
       <c r="V17" t="n">
-        <v>2535.57159954566</v>
+        <v>2217.36971432462</v>
       </c>
       <c r="W17" t="n">
-        <v>2535.57159954566</v>
+        <v>2028.784321262214</v>
       </c>
       <c r="X17" t="n">
-        <v>2535.57159954566</v>
+        <v>2028.784321262214</v>
       </c>
       <c r="Y17" t="n">
-        <v>2535.57159954566</v>
+        <v>1638.191319493289</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>832.9084402786807</v>
+        <v>915.4220925802833</v>
       </c>
       <c r="C18" t="n">
-        <v>660.1553252004978</v>
+        <v>742.6689775021005</v>
       </c>
       <c r="D18" t="n">
-        <v>512.5670185594417</v>
+        <v>595.0806708610443</v>
       </c>
       <c r="E18" t="n">
-        <v>354.9574895622965</v>
+        <v>437.471141863899</v>
       </c>
       <c r="F18" t="n">
-        <v>210.0016995789133</v>
+        <v>292.5153518805158</v>
       </c>
       <c r="G18" t="n">
-        <v>73.27740472505042</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H18" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I18" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J18" t="n">
-        <v>50.7114319909132</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K18" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L18" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M18" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N18" t="n">
-        <v>1620.913172155678</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O18" t="n">
         <v>2045.703836711752</v>
       </c>
       <c r="P18" t="n">
-        <v>2370.209254145838</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q18" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R18" t="n">
-        <v>2481.69813465677</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S18" t="n">
-        <v>2323.528421865785</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T18" t="n">
-        <v>2125.854233501243</v>
+        <v>2208.367885802846</v>
       </c>
       <c r="U18" t="n">
-        <v>1898.972060912079</v>
+        <v>1981.485713213681</v>
       </c>
       <c r="V18" t="n">
-        <v>1664.72081743768</v>
+        <v>1747.234469739282</v>
       </c>
       <c r="W18" t="n">
-        <v>1412.206325771013</v>
+        <v>1494.719978072616</v>
       </c>
       <c r="X18" t="n">
-        <v>1205.679427176591</v>
+        <v>1288.193079478193</v>
       </c>
       <c r="Y18" t="n">
-        <v>999.9509914002412</v>
+        <v>1082.464643701844</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>169.6014388306652</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="C19" t="n">
-        <v>50.7114319909132</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="D19" t="n">
-        <v>50.7114319909132</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="E19" t="n">
-        <v>50.7114319909132</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="F19" t="n">
-        <v>50.7114319909132</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G19" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H19" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I19" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J19" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K19" t="n">
         <v>100.3216812543103</v>
       </c>
       <c r="L19" t="n">
-        <v>219.6093352368816</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M19" t="n">
-        <v>355.9743406206217</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N19" t="n">
-        <v>494.2381528619505</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O19" t="n">
-        <v>606.610565557885</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P19" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q19" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R19" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S19" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T19" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U19" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V19" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W19" t="n">
-        <v>390.5596952627543</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="X19" t="n">
-        <v>390.5596952627543</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="Y19" t="n">
-        <v>169.6014388306652</v>
+        <v>219.7327493538749</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>710.505878087899</v>
+        <v>1318.494036575687</v>
       </c>
       <c r="C20" t="n">
-        <v>339.8138622505832</v>
+        <v>947.8020207383707</v>
       </c>
       <c r="D20" t="n">
-        <v>339.8138622505832</v>
+        <v>947.8020207383707</v>
       </c>
       <c r="E20" t="n">
-        <v>339.8138622505832</v>
+        <v>560.81410583404</v>
       </c>
       <c r="F20" t="n">
-        <v>339.8138622505832</v>
+        <v>149.4061629244027</v>
       </c>
       <c r="G20" t="n">
-        <v>339.8138622505832</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H20" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I20" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J20" t="n">
-        <v>154.6737472370291</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K20" t="n">
         <v>432.7629010724813</v>
       </c>
       <c r="L20" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535825</v>
       </c>
       <c r="M20" t="n">
         <v>1286.636576300462</v>
@@ -5773,31 +5773,31 @@
         <v>2398.446208459429</v>
       </c>
       <c r="Q20" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R20" t="n">
-        <v>2471.287047559324</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S20" t="n">
-        <v>2471.287047559324</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T20" t="n">
-        <v>2471.287047559324</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U20" t="n">
-        <v>2217.369714324621</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V20" t="n">
-        <v>2217.369714324621</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="W20" t="n">
-        <v>1863.298889071536</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="X20" t="n">
-        <v>1488.691213181465</v>
+        <v>2096.679371669253</v>
       </c>
       <c r="Y20" t="n">
-        <v>1098.09821141254</v>
+        <v>1706.086369900328</v>
       </c>
     </row>
     <row r="21">
@@ -5807,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C21" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D21" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E21" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F21" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G21" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H21" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I21" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J21" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K21" t="n">
         <v>296.4476481521845</v>
@@ -5852,31 +5852,31 @@
         <v>2484.689915167484</v>
       </c>
       <c r="Q21" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R21" t="n">
-        <v>2535.57159954566</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S21" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T21" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U21" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V21" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W21" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X21" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y21" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.7114319909132</v>
+        <v>346.8060234888967</v>
       </c>
       <c r="C22" t="n">
-        <v>50.7114319909132</v>
+        <v>346.8060234888967</v>
       </c>
       <c r="D22" t="n">
-        <v>50.7114319909132</v>
+        <v>346.8060234888967</v>
       </c>
       <c r="E22" t="n">
-        <v>50.7114319909132</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="F22" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G22" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H22" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I22" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J22" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K22" t="n">
         <v>100.3216812543103</v>
       </c>
       <c r="L22" t="n">
-        <v>219.6093352368816</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M22" t="n">
-        <v>355.9743406206217</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N22" t="n">
-        <v>494.2381528619505</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O22" t="n">
-        <v>606.610565557885</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P22" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q22" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R22" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S22" t="n">
-        <v>464.7698324521645</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T22" t="n">
-        <v>464.7698324521645</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U22" t="n">
-        <v>175.8589156975968</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V22" t="n">
-        <v>50.7114319909132</v>
+        <v>575.2306294811283</v>
       </c>
       <c r="W22" t="n">
-        <v>50.7114319909132</v>
+        <v>575.2306294811283</v>
       </c>
       <c r="X22" t="n">
-        <v>50.7114319909132</v>
+        <v>346.8060234888967</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.7114319909132</v>
+        <v>346.8060234888967</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1595.57476077566</v>
+        <v>986.6422976640511</v>
       </c>
       <c r="C23" t="n">
-        <v>1595.57476077566</v>
+        <v>986.6422976640511</v>
       </c>
       <c r="D23" t="n">
-        <v>1595.57476077566</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="E23" t="n">
-        <v>1208.586845871329</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F23" t="n">
-        <v>797.1789029616918</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G23" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H23" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I23" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J23" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K23" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L23" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M23" t="n">
         <v>1286.636576300462</v>
@@ -6010,31 +6010,31 @@
         <v>2398.446208459429</v>
       </c>
       <c r="Q23" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R23" t="n">
-        <v>2535.57159954566</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S23" t="n">
-        <v>2535.57159954566</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T23" t="n">
-        <v>2535.414658175084</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U23" t="n">
-        <v>2281.497324940381</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V23" t="n">
-        <v>1949.645586028746</v>
+        <v>2139.435308647688</v>
       </c>
       <c r="W23" t="n">
-        <v>1595.57476077566</v>
+        <v>2139.435308647688</v>
       </c>
       <c r="X23" t="n">
-        <v>1595.57476077566</v>
+        <v>1764.827632757617</v>
       </c>
       <c r="Y23" t="n">
-        <v>1595.57476077566</v>
+        <v>1374.234630988693</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>832.9084402786802</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C24" t="n">
-        <v>660.1553252004974</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D24" t="n">
-        <v>512.5670185594413</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E24" t="n">
-        <v>354.957489562296</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F24" t="n">
-        <v>210.0016995789129</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G24" t="n">
-        <v>73.27740472504996</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H24" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I24" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J24" t="n">
-        <v>50.7114319909132</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K24" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L24" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061546</v>
       </c>
       <c r="M24" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N24" t="n">
-        <v>1735.393833177324</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O24" t="n">
-        <v>2160.184497733399</v>
+        <v>2229.885785662707</v>
       </c>
       <c r="P24" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q24" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R24" t="n">
         <v>2481.698134656769</v>
@@ -6098,22 +6098,22 @@
         <v>2323.528421865784</v>
       </c>
       <c r="T24" t="n">
-        <v>2125.854233501243</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U24" t="n">
-        <v>1898.972060912079</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V24" t="n">
         <v>1664.720817437679</v>
       </c>
       <c r="W24" t="n">
-        <v>1412.206325771013</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X24" t="n">
         <v>1205.67942717659</v>
       </c>
       <c r="Y24" t="n">
-        <v>999.9509914002407</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>679.5420961591336</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C25" t="n">
-        <v>679.5420961591336</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D25" t="n">
-        <v>679.5420961591336</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E25" t="n">
-        <v>679.5420961591336</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F25" t="n">
-        <v>566.1832505730705</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G25" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H25" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I25" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J25" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K25" t="n">
         <v>100.3216812543103</v>
       </c>
       <c r="L25" t="n">
-        <v>219.6093352368816</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M25" t="n">
-        <v>355.9743406206217</v>
+        <v>355.9743406206216</v>
       </c>
       <c r="N25" t="n">
-        <v>494.2381528619505</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O25" t="n">
-        <v>606.610565557885</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P25" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q25" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R25" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S25" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T25" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U25" t="n">
-        <v>679.5420961591336</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V25" t="n">
-        <v>679.5420961591336</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W25" t="n">
-        <v>679.5420961591336</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X25" t="n">
-        <v>679.5420961591336</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y25" t="n">
-        <v>679.5420961591336</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1537.674215311274</v>
+        <v>1140.992727628908</v>
       </c>
       <c r="C26" t="n">
-        <v>1537.674215311274</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="D26" t="n">
-        <v>1537.674215311274</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="E26" t="n">
-        <v>1150.686300406943</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F26" t="n">
-        <v>739.2783574973059</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G26" t="n">
-        <v>321.4907620665252</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H26" t="n">
         <v>50.71143199091319</v>
@@ -6226,13 +6226,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J26" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K26" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L26" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M26" t="n">
         <v>1286.636576300462</v>
@@ -6253,25 +6253,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S26" t="n">
-        <v>2535.571599545659</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T26" t="n">
-        <v>2315.859550404841</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="U26" t="n">
-        <v>2315.859550404841</v>
+        <v>1882.655886206635</v>
       </c>
       <c r="V26" t="n">
-        <v>2315.859550404841</v>
+        <v>1882.655886206635</v>
       </c>
       <c r="W26" t="n">
-        <v>2315.859550404841</v>
+        <v>1528.58506095355</v>
       </c>
       <c r="X26" t="n">
-        <v>2315.859550404841</v>
+        <v>1528.58506095355</v>
       </c>
       <c r="Y26" t="n">
-        <v>1925.266548635916</v>
+        <v>1528.58506095355</v>
       </c>
     </row>
     <row r="27">
@@ -6299,31 +6299,31 @@
         <v>73.27740472504951</v>
       </c>
       <c r="H27" t="n">
-        <v>73.27740472504951</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I27" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J27" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K27" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L27" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061546</v>
       </c>
       <c r="M27" t="n">
-        <v>1197.116407734492</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N27" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O27" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711751</v>
       </c>
       <c r="P27" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q27" t="n">
         <v>2535.571599545659</v>
@@ -6408,28 +6408,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R28" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S28" t="n">
-        <v>314.9924154108594</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T28" t="n">
-        <v>86.76391742278648</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U28" t="n">
-        <v>86.76391742278648</v>
+        <v>461.0387566606032</v>
       </c>
       <c r="V28" t="n">
-        <v>86.76391742278648</v>
+        <v>461.0387566606032</v>
       </c>
       <c r="W28" t="n">
-        <v>50.71143199091319</v>
+        <v>461.0387566606032</v>
       </c>
       <c r="X28" t="n">
-        <v>50.71143199091319</v>
+        <v>232.6141506683716</v>
       </c>
       <c r="Y28" t="n">
-        <v>50.71143199091319</v>
+        <v>232.6141506683716</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>367.2480923965821</v>
+        <v>1627.101685997883</v>
       </c>
       <c r="C29" t="n">
-        <v>367.2480923965821</v>
+        <v>1627.101685997883</v>
       </c>
       <c r="D29" t="n">
-        <v>367.2480923965821</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E29" t="n">
-        <v>367.2480923965821</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F29" t="n">
-        <v>367.2480923965821</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G29" t="n">
-        <v>367.2480923965821</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H29" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I29" t="n">
         <v>50.71143199091319</v>
@@ -6466,16 +6466,16 @@
         <v>154.6737472370294</v>
       </c>
       <c r="K29" t="n">
-        <v>432.7629010724811</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L29" t="n">
-        <v>829.7261648535818</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M29" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N29" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O29" t="n">
         <v>2113.071138623965</v>
@@ -6487,28 +6487,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R29" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S29" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T29" t="n">
-        <v>2072.288667455001</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U29" t="n">
-        <v>1818.371334220299</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V29" t="n">
-        <v>1486.519595308663</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W29" t="n">
-        <v>1132.448770055577</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="X29" t="n">
-        <v>757.8410941655072</v>
+        <v>2405.287021091449</v>
       </c>
       <c r="Y29" t="n">
-        <v>367.2480923965821</v>
+        <v>2014.694019322524</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>886.7819051675707</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C30" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D30" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E30" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F30" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G30" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H30" t="n">
-        <v>114.9213613606678</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I30" t="n">
         <v>50.71143199091319</v>
@@ -6551,7 +6551,7 @@
         <v>757.4212114061546</v>
       </c>
       <c r="M30" t="n">
-        <v>1266.817695663801</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N30" t="n">
         <v>1620.913172155677</v>
@@ -6566,28 +6566,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R30" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S30" t="n">
-        <v>2377.401886754675</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T30" t="n">
-        <v>2179.727698390133</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U30" t="n">
-        <v>1952.845525800969</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V30" t="n">
-        <v>1718.59428232657</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W30" t="n">
-        <v>1466.079790659903</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X30" t="n">
-        <v>1259.552892065481</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y30" t="n">
-        <v>1053.824456289131</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="31">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>169.6014388306651</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C31" t="n">
         <v>50.71143199091319</v>
@@ -6657,16 +6657,16 @@
         <v>679.5420961591335</v>
       </c>
       <c r="V31" t="n">
-        <v>679.5420961591335</v>
+        <v>500.0942944152339</v>
       </c>
       <c r="W31" t="n">
-        <v>390.5596952627542</v>
+        <v>500.0942944152339</v>
       </c>
       <c r="X31" t="n">
-        <v>390.5596952627542</v>
+        <v>271.6696884230023</v>
       </c>
       <c r="Y31" t="n">
-        <v>169.6014388306651</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50.71143199091319</v>
+        <v>1339.030887212672</v>
       </c>
       <c r="C32" t="n">
-        <v>50.71143199091319</v>
+        <v>968.3388713753558</v>
       </c>
       <c r="D32" t="n">
-        <v>50.71143199091319</v>
+        <v>968.3388713753558</v>
       </c>
       <c r="E32" t="n">
-        <v>50.71143199091319</v>
+        <v>581.350956471025</v>
       </c>
       <c r="F32" t="n">
-        <v>50.71143199091319</v>
+        <v>169.9430135613878</v>
       </c>
       <c r="G32" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="H32" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="I32" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="J32" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K32" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L32" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M32" t="n">
         <v>1286.636576300462</v>
@@ -6721,31 +6721,31 @@
         <v>2398.446208459429</v>
       </c>
       <c r="Q32" t="n">
-        <v>2535.571599545659</v>
+        <v>2535.57159954566</v>
       </c>
       <c r="R32" t="n">
-        <v>2471.287047559323</v>
+        <v>2471.287047559324</v>
       </c>
       <c r="S32" t="n">
-        <v>2292.00071659582</v>
+        <v>2471.287047559324</v>
       </c>
       <c r="T32" t="n">
-        <v>2072.288667455001</v>
+        <v>2471.287047559324</v>
       </c>
       <c r="U32" t="n">
-        <v>1818.371334220299</v>
+        <v>2471.287047559324</v>
       </c>
       <c r="V32" t="n">
-        <v>1486.519595308663</v>
+        <v>2471.287047559324</v>
       </c>
       <c r="W32" t="n">
-        <v>1132.448770055577</v>
+        <v>2117.216222306238</v>
       </c>
       <c r="X32" t="n">
-        <v>828.8967670844797</v>
+        <v>2117.216222306238</v>
       </c>
       <c r="Y32" t="n">
-        <v>438.3037653155546</v>
+        <v>1726.623220537313</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>832.9084402786798</v>
+        <v>832.9084402786802</v>
       </c>
       <c r="C33" t="n">
-        <v>660.1553252004969</v>
+        <v>660.1553252004974</v>
       </c>
       <c r="D33" t="n">
-        <v>512.5670185594408</v>
+        <v>512.5670185594413</v>
       </c>
       <c r="E33" t="n">
-        <v>437.471141863899</v>
+        <v>354.957489562296</v>
       </c>
       <c r="F33" t="n">
-        <v>292.5153518805158</v>
+        <v>210.0016995789129</v>
       </c>
       <c r="G33" t="n">
-        <v>155.7910570266529</v>
+        <v>73.27740472504996</v>
       </c>
       <c r="H33" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="I33" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="J33" t="n">
         <v>120.4127199202217</v>
       </c>
       <c r="K33" t="n">
-        <v>366.1489360814929</v>
+        <v>366.148936081493</v>
       </c>
       <c r="L33" t="n">
-        <v>757.4212114061546</v>
+        <v>757.4212114061547</v>
       </c>
       <c r="M33" t="n">
-        <v>1266.817695663801</v>
+        <v>1082.635746712846</v>
       </c>
       <c r="N33" t="n">
-        <v>1620.913172155677</v>
+        <v>1620.913172155678</v>
       </c>
       <c r="O33" t="n">
-        <v>2045.703836711751</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P33" t="n">
-        <v>2370.209254145837</v>
+        <v>2370.209254145838</v>
       </c>
       <c r="Q33" t="n">
-        <v>2535.571599545659</v>
+        <v>2535.57159954566</v>
       </c>
       <c r="R33" t="n">
         <v>2481.698134656769</v>
@@ -6809,22 +6809,22 @@
         <v>2323.528421865784</v>
       </c>
       <c r="T33" t="n">
-        <v>2125.854233501242</v>
+        <v>2125.854233501243</v>
       </c>
       <c r="U33" t="n">
-        <v>1898.972060912078</v>
+        <v>1898.972060912079</v>
       </c>
       <c r="V33" t="n">
         <v>1664.720817437679</v>
       </c>
       <c r="W33" t="n">
-        <v>1412.206325771012</v>
+        <v>1412.206325771013</v>
       </c>
       <c r="X33" t="n">
         <v>1205.67942717659</v>
       </c>
       <c r="Y33" t="n">
-        <v>999.9509914002402</v>
+        <v>999.9509914002407</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>230.3553417389714</v>
+        <v>135.139915700587</v>
       </c>
       <c r="C34" t="n">
-        <v>61.32852059634283</v>
+        <v>135.139915700587</v>
       </c>
       <c r="D34" t="n">
-        <v>50.71143199091319</v>
+        <v>135.139915700587</v>
       </c>
       <c r="E34" t="n">
-        <v>50.71143199091319</v>
+        <v>135.139915700587</v>
       </c>
       <c r="F34" t="n">
-        <v>50.71143199091319</v>
+        <v>135.139915700587</v>
       </c>
       <c r="G34" t="n">
-        <v>50.71143199091319</v>
+        <v>135.139915700587</v>
       </c>
       <c r="H34" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="I34" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="J34" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="K34" t="n">
         <v>100.3216812543103</v>
       </c>
       <c r="L34" t="n">
-        <v>219.6093352368815</v>
+        <v>219.6093352368816</v>
       </c>
       <c r="M34" t="n">
-        <v>355.9743406206216</v>
+        <v>355.9743406206217</v>
       </c>
       <c r="N34" t="n">
-        <v>494.2381528619504</v>
+        <v>494.2381528619505</v>
       </c>
       <c r="O34" t="n">
-        <v>606.6105655578849</v>
+        <v>606.610565557885</v>
       </c>
       <c r="P34" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="Q34" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="R34" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="S34" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="T34" t="n">
-        <v>451.3135981710606</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="U34" t="n">
-        <v>451.3135981710606</v>
+        <v>390.631179404566</v>
       </c>
       <c r="V34" t="n">
-        <v>451.3135981710606</v>
+        <v>135.139915700587</v>
       </c>
       <c r="W34" t="n">
-        <v>451.3135981710606</v>
+        <v>135.139915700587</v>
       </c>
       <c r="X34" t="n">
-        <v>451.3135981710606</v>
+        <v>135.139915700587</v>
       </c>
       <c r="Y34" t="n">
-        <v>230.3553417389714</v>
+        <v>135.139915700587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>830.5310244872406</v>
+        <v>1919.723259506869</v>
       </c>
       <c r="C35" t="n">
-        <v>459.8390086499248</v>
+        <v>1549.031243669553</v>
       </c>
       <c r="D35" t="n">
-        <v>459.8390086499248</v>
+        <v>1188.824442907332</v>
       </c>
       <c r="E35" t="n">
-        <v>72.85109374559403</v>
+        <v>801.8365280030016</v>
       </c>
       <c r="F35" t="n">
-        <v>72.85109374559403</v>
+        <v>390.4285850933643</v>
       </c>
       <c r="G35" t="n">
-        <v>72.85109374559403</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H35" t="n">
-        <v>72.85109374559403</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I35" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J35" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K35" t="n">
-        <v>432.7629010724812</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L35" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535818</v>
       </c>
       <c r="M35" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N35" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O35" t="n">
         <v>2113.071138623965</v>
@@ -6958,31 +6958,31 @@
         <v>2398.446208459429</v>
       </c>
       <c r="Q35" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R35" t="n">
-        <v>2535.57159954566</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.57159954566</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T35" t="n">
-        <v>2535.57159954566</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="U35" t="n">
-        <v>2281.654266310957</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="V35" t="n">
-        <v>1949.802527399321</v>
+        <v>1919.723259506869</v>
       </c>
       <c r="W35" t="n">
-        <v>1595.731702146236</v>
+        <v>1919.723259506869</v>
       </c>
       <c r="X35" t="n">
-        <v>1221.124026256166</v>
+        <v>1919.723259506869</v>
       </c>
       <c r="Y35" t="n">
-        <v>830.5310244872406</v>
+        <v>1919.723259506869</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>832.9084402786802</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C36" t="n">
-        <v>660.1553252004974</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D36" t="n">
-        <v>512.5670185594413</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E36" t="n">
-        <v>354.957489562296</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F36" t="n">
-        <v>210.0016995789129</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G36" t="n">
-        <v>210.0016995789129</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9213613606679</v>
+        <v>114.9213613606678</v>
       </c>
       <c r="I36" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J36" t="n">
-        <v>50.7114319909132</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K36" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L36" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061546</v>
       </c>
       <c r="M36" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N36" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O36" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711751</v>
       </c>
       <c r="P36" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q36" t="n">
-        <v>2535.57159954566</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="R36" t="n">
         <v>2481.698134656769</v>
@@ -7046,22 +7046,22 @@
         <v>2323.528421865784</v>
       </c>
       <c r="T36" t="n">
-        <v>2125.854233501243</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U36" t="n">
-        <v>1898.972060912079</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V36" t="n">
         <v>1664.720817437679</v>
       </c>
       <c r="W36" t="n">
-        <v>1412.206325771013</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X36" t="n">
         <v>1205.67942717659</v>
       </c>
       <c r="Y36" t="n">
-        <v>999.9509914002407</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.7114319909132</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="C37" t="n">
-        <v>50.7114319909132</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="D37" t="n">
-        <v>50.7114319909132</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="E37" t="n">
-        <v>50.7114319909132</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="F37" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G37" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H37" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I37" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J37" t="n">
-        <v>50.7114319909132</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K37" t="n">
         <v>100.3216812543103</v>
       </c>
       <c r="L37" t="n">
-        <v>219.6093352368816</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M37" t="n">
-        <v>355.9743406206217</v>
+        <v>355.9743406206216</v>
       </c>
       <c r="N37" t="n">
-        <v>494.2381528619505</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O37" t="n">
-        <v>606.610565557885</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P37" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q37" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R37" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S37" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T37" t="n">
-        <v>679.5420961591336</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U37" t="n">
-        <v>679.5420961591336</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V37" t="n">
-        <v>679.5420961591336</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="W37" t="n">
-        <v>390.5596952627543</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="X37" t="n">
-        <v>390.5596952627543</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="Y37" t="n">
-        <v>169.6014388306652</v>
+        <v>198.3468071523319</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1627.101685997883</v>
+        <v>1219.799305642197</v>
       </c>
       <c r="C38" t="n">
-        <v>1627.101685997883</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="D38" t="n">
-        <v>1266.894885235662</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="E38" t="n">
-        <v>879.9069703313312</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F38" t="n">
-        <v>468.4990274216939</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G38" t="n">
         <v>50.71143199091319</v>
@@ -7174,13 +7174,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J38" t="n">
-        <v>154.6737472370291</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K38" t="n">
-        <v>432.7629010724808</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L38" t="n">
-        <v>829.7261648535818</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M38" t="n">
         <v>1286.636576300462</v>
@@ -7198,28 +7198,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R38" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S38" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T38" t="n">
-        <v>2389.301695212594</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U38" t="n">
-        <v>2389.301695212594</v>
+        <v>2280.329545696988</v>
       </c>
       <c r="V38" t="n">
-        <v>2389.301695212594</v>
+        <v>1948.477806785353</v>
       </c>
       <c r="W38" t="n">
-        <v>2389.301695212594</v>
+        <v>1594.406981532267</v>
       </c>
       <c r="X38" t="n">
-        <v>2014.694019322524</v>
+        <v>1219.799305642197</v>
       </c>
       <c r="Y38" t="n">
-        <v>2014.694019322524</v>
+        <v>1219.799305642197</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C39" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D39" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E39" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F39" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G39" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H39" t="n">
-        <v>114.9213613606678</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I39" t="n">
         <v>50.71143199091319</v>
@@ -7265,10 +7265,10 @@
         <v>1266.817695663801</v>
       </c>
       <c r="N39" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O39" t="n">
-        <v>2229.885785662707</v>
+        <v>2045.703836711751</v>
       </c>
       <c r="P39" t="n">
         <v>2370.209254145837</v>
@@ -7289,16 +7289,16 @@
         <v>1898.972060912078</v>
       </c>
       <c r="V39" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W39" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X39" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y39" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>529.7646791178286</v>
+        <v>269.2147714894435</v>
       </c>
       <c r="C40" t="n">
-        <v>360.7378579752</v>
+        <v>100.1879503468149</v>
       </c>
       <c r="D40" t="n">
-        <v>360.7378579752</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E40" t="n">
-        <v>212.2786416386352</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F40" t="n">
-        <v>64.64326647721646</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G40" t="n">
         <v>50.71143199091319</v>
@@ -7356,28 +7356,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R40" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S40" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T40" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U40" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V40" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W40" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="X40" t="n">
-        <v>529.7646791178286</v>
+        <v>451.1174901669019</v>
       </c>
       <c r="Y40" t="n">
-        <v>529.7646791178286</v>
+        <v>451.1174901669019</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>781.6102485904496</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="C41" t="n">
-        <v>410.9182327531338</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="D41" t="n">
-        <v>50.71143199091319</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="E41" t="n">
-        <v>50.71143199091319</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="F41" t="n">
-        <v>50.71143199091319</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G41" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="H41" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="I41" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="J41" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370291</v>
       </c>
       <c r="K41" t="n">
-        <v>432.7629010724808</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L41" t="n">
-        <v>829.7261648535818</v>
+        <v>829.726164853582</v>
       </c>
       <c r="M41" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N41" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O41" t="n">
         <v>2113.071138623965</v>
@@ -7432,31 +7432,31 @@
         <v>2398.446208459429</v>
       </c>
       <c r="Q41" t="n">
-        <v>2535.571599545659</v>
+        <v>2535.57159954566</v>
       </c>
       <c r="R41" t="n">
-        <v>2471.287047559323</v>
+        <v>2471.287047559324</v>
       </c>
       <c r="S41" t="n">
-        <v>2292.00071659582</v>
+        <v>2471.287047559324</v>
       </c>
       <c r="T41" t="n">
-        <v>2072.288667455001</v>
+        <v>2471.287047559324</v>
       </c>
       <c r="U41" t="n">
-        <v>1818.371334220299</v>
+        <v>2307.214602570052</v>
       </c>
       <c r="V41" t="n">
-        <v>1818.371334220299</v>
+        <v>1975.362863658416</v>
       </c>
       <c r="W41" t="n">
-        <v>1464.300508967213</v>
+        <v>1621.292038405331</v>
       </c>
       <c r="X41" t="n">
-        <v>1089.692833077143</v>
+        <v>1246.684362515261</v>
       </c>
       <c r="Y41" t="n">
-        <v>1089.692833077143</v>
+        <v>856.0913607463353</v>
       </c>
     </row>
     <row r="42">
@@ -7466,55 +7466,55 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>886.7819051675707</v>
+        <v>886.7819051675712</v>
       </c>
       <c r="C42" t="n">
-        <v>714.0287900893879</v>
+        <v>714.0287900893884</v>
       </c>
       <c r="D42" t="n">
-        <v>566.4404834483319</v>
+        <v>566.4404834483323</v>
       </c>
       <c r="E42" t="n">
-        <v>408.8309544511866</v>
+        <v>408.830954451187</v>
       </c>
       <c r="F42" t="n">
-        <v>263.8751644678034</v>
+        <v>263.8751644678039</v>
       </c>
       <c r="G42" t="n">
-        <v>127.1508696139405</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9213613606678</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I42" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="J42" t="n">
         <v>120.4127199202217</v>
       </c>
       <c r="K42" t="n">
-        <v>347.3293325303594</v>
+        <v>366.148936081493</v>
       </c>
       <c r="L42" t="n">
-        <v>738.601607855021</v>
+        <v>757.4212114061547</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.998092112667</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N42" t="n">
-        <v>1786.275517555499</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O42" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P42" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q42" t="n">
-        <v>2535.571599545659</v>
+        <v>2535.57159954566</v>
       </c>
       <c r="R42" t="n">
-        <v>2535.571599545659</v>
+        <v>2535.57159954566</v>
       </c>
       <c r="S42" t="n">
         <v>2377.401886754675</v>
@@ -7535,7 +7535,7 @@
         <v>1259.552892065481</v>
       </c>
       <c r="Y42" t="n">
-        <v>1053.824456289131</v>
+        <v>1053.824456289132</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.43541385018935</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="C43" t="n">
-        <v>53.43541385018935</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="D43" t="n">
-        <v>53.43541385018935</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="E43" t="n">
-        <v>53.43541385018935</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="F43" t="n">
-        <v>53.43541385018935</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="G43" t="n">
-        <v>53.43541385018935</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="H43" t="n">
-        <v>53.43541385018935</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="I43" t="n">
-        <v>53.43541385018935</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="J43" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="K43" t="n">
         <v>100.3216812543103</v>
       </c>
       <c r="L43" t="n">
-        <v>219.6093352368815</v>
+        <v>219.6093352368816</v>
       </c>
       <c r="M43" t="n">
-        <v>355.9743406206216</v>
+        <v>355.9743406206217</v>
       </c>
       <c r="N43" t="n">
-        <v>494.2381528619504</v>
+        <v>494.2381528619505</v>
       </c>
       <c r="O43" t="n">
-        <v>606.6105655578849</v>
+        <v>606.610565557885</v>
       </c>
       <c r="P43" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="Q43" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="R43" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="S43" t="n">
-        <v>281.6639118382623</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="T43" t="n">
-        <v>53.43541385018935</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="U43" t="n">
-        <v>53.43541385018935</v>
+        <v>500.0942944152339</v>
       </c>
       <c r="V43" t="n">
-        <v>53.43541385018935</v>
+        <v>500.0942944152339</v>
       </c>
       <c r="W43" t="n">
-        <v>53.43541385018935</v>
+        <v>500.0942944152339</v>
       </c>
       <c r="X43" t="n">
-        <v>53.43541385018935</v>
+        <v>271.6696884230023</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.43541385018935</v>
+        <v>50.7114319909132</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1462.056702056297</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="C44" t="n">
-        <v>1462.056702056297</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="D44" t="n">
-        <v>1266.894885235662</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="E44" t="n">
-        <v>879.9069703313312</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F44" t="n">
-        <v>468.4990274216939</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="G44" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="H44" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="I44" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="J44" t="n">
         <v>154.6737472370294</v>
       </c>
       <c r="K44" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724811</v>
       </c>
       <c r="L44" t="n">
-        <v>829.7261648535818</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M44" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N44" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O44" t="n">
         <v>2113.071138623965</v>
       </c>
       <c r="P44" t="n">
-        <v>2398.446208459429</v>
+        <v>2398.44620845943</v>
       </c>
       <c r="Q44" t="n">
-        <v>2535.571599545659</v>
+        <v>2535.57159954566</v>
       </c>
       <c r="R44" t="n">
-        <v>2535.571599545659</v>
+        <v>2535.57159954566</v>
       </c>
       <c r="S44" t="n">
-        <v>2535.571599545659</v>
+        <v>2535.57159954566</v>
       </c>
       <c r="T44" t="n">
-        <v>2535.571599545659</v>
+        <v>2535.57159954566</v>
       </c>
       <c r="U44" t="n">
-        <v>2535.571599545659</v>
+        <v>2535.57159954566</v>
       </c>
       <c r="V44" t="n">
-        <v>2203.719860634023</v>
+        <v>2203.719860634024</v>
       </c>
       <c r="W44" t="n">
-        <v>1849.649035380938</v>
+        <v>1849.649035380939</v>
       </c>
       <c r="X44" t="n">
-        <v>1849.649035380938</v>
+        <v>1475.041359490869</v>
       </c>
       <c r="Y44" t="n">
-        <v>1849.649035380938</v>
+        <v>1084.448357721944</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>832.9084402786798</v>
+        <v>832.9084402786802</v>
       </c>
       <c r="C45" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004974</v>
       </c>
       <c r="D45" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594413</v>
       </c>
       <c r="E45" t="n">
-        <v>501.6810712336537</v>
+        <v>354.957489562296</v>
       </c>
       <c r="F45" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789129</v>
       </c>
       <c r="G45" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504996</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9213613606678</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="I45" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="J45" t="n">
         <v>120.4127199202217</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9669871305368</v>
+        <v>366.148936081493</v>
       </c>
       <c r="L45" t="n">
-        <v>573.2392624551985</v>
+        <v>757.4212114061547</v>
       </c>
       <c r="M45" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N45" t="n">
         <v>1620.913172155677</v>
       </c>
       <c r="O45" t="n">
-        <v>2045.703836711751</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P45" t="n">
         <v>2370.209254145837</v>
       </c>
       <c r="Q45" t="n">
-        <v>2535.571599545659</v>
+        <v>2535.57159954566</v>
       </c>
       <c r="R45" t="n">
         <v>2481.698134656769</v>
@@ -7757,22 +7757,22 @@
         <v>2323.528421865784</v>
       </c>
       <c r="T45" t="n">
-        <v>2125.854233501242</v>
+        <v>2125.854233501243</v>
       </c>
       <c r="U45" t="n">
-        <v>1898.972060912078</v>
+        <v>1898.972060912079</v>
       </c>
       <c r="V45" t="n">
         <v>1664.720817437679</v>
       </c>
       <c r="W45" t="n">
-        <v>1412.206325771012</v>
+        <v>1412.206325771013</v>
       </c>
       <c r="X45" t="n">
         <v>1205.67942717659</v>
       </c>
       <c r="Y45" t="n">
-        <v>999.9509914002402</v>
+        <v>999.9509914002407</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="C46" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="D46" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="E46" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="F46" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="G46" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="H46" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="I46" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="J46" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="K46" t="n">
         <v>100.3216812543103</v>
       </c>
       <c r="L46" t="n">
-        <v>219.6093352368815</v>
+        <v>219.6093352368816</v>
       </c>
       <c r="M46" t="n">
-        <v>355.9743406206216</v>
+        <v>355.9743406206217</v>
       </c>
       <c r="N46" t="n">
-        <v>494.2381528619504</v>
+        <v>494.2381528619505</v>
       </c>
       <c r="O46" t="n">
-        <v>606.6105655578849</v>
+        <v>606.610565557885</v>
       </c>
       <c r="P46" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="Q46" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="R46" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="S46" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="T46" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591336</v>
       </c>
       <c r="U46" t="n">
-        <v>529.7646791178286</v>
+        <v>390.631179404566</v>
       </c>
       <c r="V46" t="n">
-        <v>274.2734154138496</v>
+        <v>135.139915700587</v>
       </c>
       <c r="W46" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="X46" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.71143199091319</v>
+        <v>50.7114319909132</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L2" t="n">
         <v>434.3676631324684</v>
@@ -8057,19 +8057,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L3" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
-        <v>138.5806830739679</v>
+        <v>139.1386460980858</v>
       </c>
       <c r="N3" t="n">
-        <v>269.7194869079138</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
         <v>409.6168120477987</v>
@@ -8297,22 +8297,22 @@
         <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L6" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>412.8644904155703</v>
+        <v>362.2401502120437</v>
       </c>
       <c r="N6" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P6" t="n">
-        <v>146.9415753334873</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q6" t="n">
         <v>136.482229733871</v>
@@ -8531,28 +8531,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>412.8644904155703</v>
+        <v>228.6047863635229</v>
       </c>
       <c r="N9" t="n">
-        <v>188.5439209688487</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8768,7 +8768,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>112.1249761973255</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
@@ -8786,10 +8786,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>331.2012793855346</v>
+        <v>312.1915788288343</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.44770712425044</v>
+        <v>51.44770712425047</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9014,10 +9014,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>298.2908936222673</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
@@ -9242,7 +9242,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>60.72933541128934</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
         <v>275.0438464930818</v>
@@ -9254,7 +9254,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>382.879037982299</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9479,7 +9479,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>60.72933541128933</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9500,7 +9500,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>102.8433479102864</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9716,7 +9716,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>60.72933541128934</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9734,10 +9734,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>331.2012793855346</v>
+        <v>145.1589067078015</v>
       </c>
       <c r="Q24" t="n">
-        <v>102.8433479102864</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9953,7 +9953,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>60.72933541128934</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
@@ -9962,7 +9962,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
-        <v>484.3332662999999</v>
+        <v>298.2908936222665</v>
       </c>
       <c r="N27" t="n">
         <v>498.5160693172957</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.8433479102859</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10199,10 +10199,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
-        <v>484.3332662999999</v>
+        <v>298.2908936222665</v>
       </c>
       <c r="N30" t="n">
-        <v>312.4736966395624</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
@@ -10436,10 +10436,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
-        <v>484.3332662999999</v>
+        <v>298.2908936222673</v>
       </c>
       <c r="N33" t="n">
-        <v>312.4736966395624</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O33" t="n">
         <v>409.6168120477987</v>
@@ -10664,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>60.72933541128934</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10676,7 +10676,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395624</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.8433479102864</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10913,13 +10913,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395624</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>145.1589067078015</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
         <v>218.4803792452831</v>
@@ -11062,7 +11062,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1112290740111</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L41" t="n">
         <v>434.3676631324684</v>
@@ -11141,7 +11141,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>256.0341459363812</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11150,7 +11150,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395625</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11159,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.44770712425046</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11317,7 +11317,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q44" t="n">
-        <v>220.8075902863009</v>
+        <v>220.8075902863004</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11378,7 +11378,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
-        <v>89.00147381534831</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
         <v>385.6739591155975</v>
@@ -11387,7 +11387,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395625</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>383.1180357552875</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>196.1691054618751</v>
+        <v>110.8293296764538</v>
       </c>
       <c r="Y11" t="n">
         <v>386.6870717512358</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>145.2563458546437</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23427,19 +23427,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>33.933764279602</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.99521853687119</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R13" t="n">
         <v>148.2796428708918</v>
@@ -23469,13 +23469,13 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T13" t="n">
-        <v>225.9462130081922</v>
+        <v>142.3620141356151</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.0925768874155</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>63.64170646647293</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S14" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.5149286494106</v>
+        <v>91.77990767726362</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>307.0113950710518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23579,7 +23579,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>145.2563458546437</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>33.93376427960198</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.9952185368712</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R16" t="n">
         <v>148.2796428708918</v>
@@ -23709,13 +23709,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.9363510669392</v>
+        <v>202.5083780148385</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23734,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>333.9340427962891</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>63.64170646647293</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>177.493467653868</v>
@@ -23788,19 +23788,19 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>163.830577868772</v>
       </c>
       <c r="X17" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>81.68851577858651</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>63.56783007605711</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>28.3537855385857</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
-        <v>49.63544615984789</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
         <v>149.0055665145194</v>
@@ -23904,7 +23904,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.6686349500177</v>
@@ -23913,7 +23913,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J19" t="n">
-        <v>49.3539737549178</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.9952185368712</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R19" t="n">
         <v>148.2796428708918</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>226.1403599323093</v>
+        <v>57.02168348251874</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -23977,16 +23977,16 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.6097194764729</v>
+        <v>315.9019358523183</v>
       </c>
       <c r="H20" t="n">
-        <v>39.18167082752463</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I20" t="n">
         <v>157.2246747536534</v>
@@ -24025,13 +24025,13 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>53.33473024000173</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>91.92161561464238</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3311041893321</v>
@@ -24150,7 +24150,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J22" t="n">
-        <v>49.3539737549178</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,28 +24171,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.99521853687119</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R22" t="n">
         <v>148.2796428708918</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T22" t="n">
         <v>225.9462130081922</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V22" t="n">
-        <v>129.0403421973224</v>
+        <v>149.667999055714</v>
       </c>
       <c r="W22" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>220.4450749740203</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I23" t="n">
         <v>157.2246747536534</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>63.64170646647293</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T23" t="n">
-        <v>217.3595566925403</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24302,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>81.68851577858695</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I24" t="n">
         <v>63.56783007605711</v>
@@ -24375,19 +24375,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>33.933764279602</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>49.3539737549178</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>202.5083780148385</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24445,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>108.5101959543414</v>
       </c>
       <c r="D26" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>57.32154000974197</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I26" t="n">
         <v>157.2246747536534</v>
@@ -24493,25 +24493,25 @@
         <v>63.64170646647293</v>
       </c>
       <c r="S26" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -24539,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>104.0288287853823</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I27" t="n">
-        <v>41.22751706926216</v>
+        <v>63.56783007605711</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.3365529312023</v>
@@ -24648,25 +24648,25 @@
         <v>32.9952185368712</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0218075870219</v>
+        <v>69.70350148347691</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>250.400616309861</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.7486738677682</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>169.246457736639</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>63.64170646647293</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.8798664615014</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24761,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>91.92161561464263</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24776,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>63.56783007605711</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>53.33473024000173</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>49.63544615984797</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
@@ -24897,13 +24897,13 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>75.28302734047855</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.6097194764729</v>
+        <v>295.5704537217031</v>
       </c>
       <c r="H32" t="n">
         <v>325.3930767845979</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>70.34511618978274</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25004,7 +25004,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>81.6885157785874</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>81.68851577858695</v>
       </c>
       <c r="I33" t="n">
         <v>63.56783007605711</v>
@@ -25077,10 +25077,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
-        <v>138.494648795144</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
         <v>146.9746241731992</v>
@@ -25092,7 +25092,7 @@
         <v>167.3311041893321</v>
       </c>
       <c r="H34" t="n">
-        <v>156.6686349500177</v>
+        <v>73.08443607744064</v>
       </c>
       <c r="I34" t="n">
         <v>136.9633875020681</v>
@@ -25128,13 +25128,13 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.0925768874155</v>
@@ -25143,7 +25143,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="35">
@@ -25159,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.6097194764729</v>
+        <v>402.6828146896441</v>
       </c>
       <c r="H35" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>135.3064096165193</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>63.64170646647293</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T35" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -25238,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>9.899293949319789</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>62.38258471932934</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
         <v>167.3365529312023</v>
@@ -25323,7 +25323,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3311041893321</v>
@@ -25368,19 +25368,19 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>95.73104835770386</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H38" t="n">
         <v>325.3930767845979</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>63.64170646647293</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T38" t="n">
-        <v>72.70772335967585</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3781599023558</v>
+        <v>62.33023305864415</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>63.56783007605711</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25529,7 +25529,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>145.2563458546444</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>149.0055665145194</v>
+        <v>100.0238133421767</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>153.5385880478918</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H40" t="n">
         <v>156.6686349500177</v>
@@ -25596,7 +25596,7 @@
         <v>32.9952185368712</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S40" t="n">
         <v>212.6245410698995</v>
@@ -25614,7 +25614,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>78.71465134956844</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
         <v>383.1180357552875</v>
@@ -25642,7 +25642,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>325.3930767845979</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>88.94643936297712</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25721,10 +25721,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>91.92161561464198</v>
       </c>
       <c r="H42" t="n">
-        <v>91.92161561464242</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J43" t="n">
-        <v>46.65723171423441</v>
+        <v>49.3539737549178</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>32.99521853687119</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0218075870219</v>
+        <v>108.3684838605612</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25851,10 +25851,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>150.728752753503</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>163.3945341021701</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H44" t="n">
         <v>325.3930767845979</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.64170646647293</v>
+        <v>63.64170646647291</v>
       </c>
       <c r="S44" t="n">
         <v>177.493467653868</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25961,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>81.68851577858695</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>63.56783007605711</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26067,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.9952185368712</v>
+        <v>32.99521853687119</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S46" t="n">
         <v>212.6245410698995</v>
@@ -26079,13 +26079,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>64.76621329870849</v>
+        <v>202.5083780148384</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>690451.1812757722</v>
+        <v>690451.1812757724</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>690451.1812757724</v>
+        <v>690451.1812757722</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>690451.1812757722</v>
+        <v>690451.1812757724</v>
       </c>
     </row>
     <row r="10">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>690451.1812757722</v>
+        <v>690451.1812757723</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>468003.6599535884</v>
+        <v>468003.6599535883</v>
       </c>
       <c r="C2" t="n">
-        <v>468003.6599535884</v>
+        <v>468003.6599535883</v>
       </c>
       <c r="D2" t="n">
         <v>468003.6599535887</v>
       </c>
       <c r="E2" t="n">
+        <v>315500.1735876869</v>
+      </c>
+      <c r="F2" t="n">
+        <v>315500.1735876871</v>
+      </c>
+      <c r="G2" t="n">
         <v>315500.1735876872</v>
-      </c>
-      <c r="F2" t="n">
-        <v>315500.1735876873</v>
-      </c>
-      <c r="G2" t="n">
-        <v>315500.1735876873</v>
       </c>
       <c r="H2" t="n">
         <v>315500.1735876872</v>
@@ -26340,7 +26340,7 @@
         <v>315500.1735876871</v>
       </c>
       <c r="K2" t="n">
-        <v>315500.1735876873</v>
+        <v>315500.1735876871</v>
       </c>
       <c r="L2" t="n">
         <v>315500.1735876872</v>
@@ -26349,10 +26349,10 @@
         <v>315500.1735876873</v>
       </c>
       <c r="N2" t="n">
-        <v>315500.1735876872</v>
+        <v>315500.1735876871</v>
       </c>
       <c r="O2" t="n">
-        <v>315500.1735876871</v>
+        <v>315500.1735876873</v>
       </c>
       <c r="P2" t="n">
         <v>315500.1735876873</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356189.4298866803</v>
+        <v>356189.4298866802</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>71764.71248808621</v>
+        <v>71764.71248808624</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>89616.02429853746</v>
+        <v>89616.02429853742</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310710.8877942914</v>
+        <v>310710.8877942915</v>
       </c>
       <c r="C4" t="n">
-        <v>310710.8877942914</v>
+        <v>310710.8877942915</v>
       </c>
       <c r="D4" t="n">
-        <v>310710.8877942914</v>
+        <v>310710.8877942915</v>
       </c>
       <c r="E4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="F4" t="n">
         <v>46215.62445539849</v>
       </c>
       <c r="G4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="H4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="I4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="J4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="K4" t="n">
         <v>46215.62445539849</v>
@@ -26450,10 +26450,10 @@
         <v>46215.62445539849</v>
       </c>
       <c r="M4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="N4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="O4" t="n">
         <v>46215.62445539849</v>
@@ -26478,19 +26478,19 @@
         <v>50304.05548636943</v>
       </c>
       <c r="E5" t="n">
-        <v>45292.26111567482</v>
+        <v>45292.2611156748</v>
       </c>
       <c r="F5" t="n">
-        <v>45292.26111567482</v>
+        <v>45292.2611156748</v>
       </c>
       <c r="G5" t="n">
-        <v>45292.26111567482</v>
+        <v>45292.2611156748</v>
       </c>
       <c r="H5" t="n">
-        <v>45292.26111567481</v>
+        <v>45292.2611156748</v>
       </c>
       <c r="I5" t="n">
-        <v>45292.26111567481</v>
+        <v>45292.2611156748</v>
       </c>
       <c r="J5" t="n">
         <v>45292.2611156748</v>
@@ -26499,19 +26499,19 @@
         <v>45292.2611156748</v>
       </c>
       <c r="L5" t="n">
+        <v>45292.26111567481</v>
+      </c>
+      <c r="M5" t="n">
         <v>45292.2611156748</v>
-      </c>
-      <c r="M5" t="n">
-        <v>45292.26111567481</v>
       </c>
       <c r="N5" t="n">
         <v>45292.2611156748</v>
       </c>
       <c r="O5" t="n">
-        <v>45292.2611156748</v>
+        <v>45292.26111567481</v>
       </c>
       <c r="P5" t="n">
-        <v>45292.2611156748</v>
+        <v>45292.26111567481</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15069.90430518769</v>
+        <v>15069.90430518751</v>
       </c>
       <c r="C6" t="n">
-        <v>106988.7166729275</v>
+        <v>106988.7166729274</v>
       </c>
       <c r="D6" t="n">
-        <v>106988.7166729279</v>
+        <v>106988.7166729278</v>
       </c>
       <c r="E6" t="n">
-        <v>-132197.1418700665</v>
+        <v>-138827.7282338015</v>
       </c>
       <c r="F6" t="n">
-        <v>223992.288016614</v>
+        <v>217361.701652879</v>
       </c>
       <c r="G6" t="n">
-        <v>223992.288016614</v>
+        <v>217361.7016528791</v>
       </c>
       <c r="H6" t="n">
-        <v>223992.2880166139</v>
+        <v>217361.7016528791</v>
       </c>
       <c r="I6" t="n">
-        <v>223992.2880166139</v>
+        <v>217361.701652879</v>
       </c>
       <c r="J6" t="n">
-        <v>152227.5755285276</v>
+        <v>145596.9891647927</v>
       </c>
       <c r="K6" t="n">
-        <v>223992.288016614</v>
+        <v>217361.701652879</v>
       </c>
       <c r="L6" t="n">
-        <v>223992.2880166139</v>
+        <v>217361.7016528791</v>
       </c>
       <c r="M6" t="n">
-        <v>134376.2637180765</v>
+        <v>127745.6773543417</v>
       </c>
       <c r="N6" t="n">
-        <v>223992.2880166139</v>
+        <v>217361.701652879</v>
       </c>
       <c r="O6" t="n">
-        <v>223992.2880166139</v>
+        <v>217361.7016528792</v>
       </c>
       <c r="P6" t="n">
-        <v>223992.288016614</v>
+        <v>217361.7016528792</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>309.7051744303112</v>
+        <v>309.705174430311</v>
       </c>
       <c r="F3" t="n">
-        <v>309.7051744303111</v>
+        <v>309.705174430311</v>
       </c>
       <c r="G3" t="n">
-        <v>309.7051744303111</v>
+        <v>309.705174430311</v>
       </c>
       <c r="H3" t="n">
-        <v>309.7051744303112</v>
+        <v>309.705174430311</v>
       </c>
       <c r="I3" t="n">
         <v>309.7051744303111</v>
@@ -26776,10 +26776,10 @@
         <v>309.7051744303111</v>
       </c>
       <c r="O3" t="n">
-        <v>309.7051744303111</v>
+        <v>309.7051744303112</v>
       </c>
       <c r="P3" t="n">
-        <v>309.7051744303111</v>
+        <v>309.7051744303112</v>
       </c>
     </row>
     <row r="4">
@@ -26798,19 +26798,19 @@
         <v>274.2838073416025</v>
       </c>
       <c r="E4" t="n">
-        <v>633.8928998864151</v>
+        <v>633.8928998864149</v>
       </c>
       <c r="F4" t="n">
-        <v>633.8928998864151</v>
+        <v>633.8928998864149</v>
       </c>
       <c r="G4" t="n">
-        <v>633.8928998864151</v>
+        <v>633.8928998864149</v>
       </c>
       <c r="H4" t="n">
-        <v>633.892899886415</v>
+        <v>633.8928998864149</v>
       </c>
       <c r="I4" t="n">
-        <v>633.892899886415</v>
+        <v>633.8928998864149</v>
       </c>
       <c r="J4" t="n">
         <v>633.8928998864149</v>
@@ -26819,19 +26819,19 @@
         <v>633.8928998864149</v>
       </c>
       <c r="L4" t="n">
+        <v>633.892899886415</v>
+      </c>
+      <c r="M4" t="n">
         <v>633.8928998864149</v>
-      </c>
-      <c r="M4" t="n">
-        <v>633.892899886415</v>
       </c>
       <c r="N4" t="n">
         <v>633.8928998864149</v>
       </c>
       <c r="O4" t="n">
-        <v>633.8928998864149</v>
+        <v>633.892899886415</v>
       </c>
       <c r="P4" t="n">
-        <v>633.8928998864149</v>
+        <v>633.892899886415</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>309.7051744303112</v>
+        <v>309.705174430311</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>359.6090925448126</v>
+        <v>359.6090925448124</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>274.2838073416024</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.6090925448125</v>
+        <v>359.6090925448124</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.6090925448126</v>
+        <v>359.6090925448124</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>348.7822272116858</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>140.5709580622284</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>54.24941418091686</v>
+        <v>109.0591832075437</v>
       </c>
       <c r="W2" t="n">
         <v>350.5301170005546</v>
@@ -27457,22 +27457,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27511,22 +27511,22 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>37.46324622143868</v>
       </c>
       <c r="X3" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>110.7633878995072</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -27563,7 +27563,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>173.3911476697823</v>
@@ -27590,7 +27590,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T4" t="n">
-        <v>228.3324659915077</v>
+        <v>143.9544489435808</v>
       </c>
       <c r="U4" t="n">
         <v>286.0522703910642</v>
@@ -27599,7 +27599,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W4" t="n">
-        <v>107.1794502458072</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X4" t="n">
         <v>226.1403599323093</v>
@@ -27627,7 +27627,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
-        <v>335.1243462353927</v>
+        <v>387.0836802359902</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>63.86009604655089</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
         <v>251.4777635765444</v>
@@ -27684,7 +27684,7 @@
         <v>96.5777917895669</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>133.6938764391614</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
         <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>8.574372445773577</v>
       </c>
       <c r="Y6" t="n">
         <v>203.671151418586</v>
@@ -27788,10 +27788,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G7" t="n">
-        <v>167.8895889301081</v>
+        <v>150.6105342974166</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6340720089168</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>153.7585467974036</v>
@@ -27836,7 +27836,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W7" t="n">
-        <v>107.1794502458072</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X7" t="n">
         <v>226.1403599323093</v>
@@ -27855,13 +27855,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D8" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>4.183845708871218</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>54.24941418091686</v>
+        <v>160.3778733527259</v>
       </c>
       <c r="W8" t="n">
         <v>350.5301170005546</v>
@@ -27946,10 +27946,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>103.8238476396842</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
         <v>86.50354346547167</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>44.95881684231247</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -28034,10 +28034,10 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>4.460827879852118</v>
       </c>
       <c r="R10" t="n">
         <v>173.3911476697823</v>
@@ -28067,7 +28067,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
-        <v>107.1391437494559</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V10" t="n">
         <v>252.9363510669392</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.245045927358034</v>
+        <v>1.245045927358033</v>
       </c>
       <c r="H11" t="n">
-        <v>12.75082660355547</v>
+        <v>12.75082660355546</v>
       </c>
       <c r="I11" t="n">
-        <v>47.99963311447065</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J11" t="n">
         <v>105.671716777104</v>
@@ -31767,34 +31767,34 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L11" t="n">
-        <v>196.4775851815531</v>
+        <v>196.477585181553</v>
       </c>
       <c r="M11" t="n">
-        <v>218.6191706922065</v>
+        <v>218.6191706922064</v>
       </c>
       <c r="N11" t="n">
         <v>222.1566574333125</v>
       </c>
       <c r="O11" t="n">
-        <v>209.7762319931461</v>
+        <v>209.776231993146</v>
       </c>
       <c r="P11" t="n">
-        <v>179.0391606614946</v>
+        <v>179.0391606614945</v>
       </c>
       <c r="Q11" t="n">
-        <v>134.450953387985</v>
+        <v>134.4509533879849</v>
       </c>
       <c r="R11" t="n">
-        <v>78.20911623440416</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S11" t="n">
-        <v>28.37148406967123</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T11" t="n">
-        <v>5.450188547009796</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09960367418864269</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6661582997180278</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H12" t="n">
-        <v>6.433686736750428</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I12" t="n">
-        <v>22.93571338941456</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J12" t="n">
-        <v>62.9373505887107</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K12" t="n">
-        <v>107.5699566698186</v>
+        <v>107.5699566698185</v>
       </c>
       <c r="L12" t="n">
         <v>144.6410816997411</v>
       </c>
       <c r="M12" t="n">
-        <v>168.7893200645196</v>
+        <v>168.7893200645195</v>
       </c>
       <c r="N12" t="n">
-        <v>173.2566711183304</v>
+        <v>173.2566711183303</v>
       </c>
       <c r="O12" t="n">
         <v>158.4960056351046</v>
@@ -31861,19 +31861,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.03452260962054</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R12" t="n">
-        <v>41.36024952108949</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S12" t="n">
-        <v>12.3735982425695</v>
+        <v>12.37359824256949</v>
       </c>
       <c r="T12" t="n">
-        <v>2.685085427372225</v>
+        <v>2.685085427372224</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04382620392881763</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5584847407759709</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H13" t="n">
-        <v>4.965437058899091</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I13" t="n">
-        <v>16.79515929533557</v>
+        <v>16.79515929533556</v>
       </c>
       <c r="J13" t="n">
-        <v>39.48487117286114</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K13" t="n">
-        <v>64.88577261015369</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L13" t="n">
-        <v>83.03144955136572</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M13" t="n">
-        <v>87.54502168363695</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N13" t="n">
-        <v>85.46339674074477</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O13" t="n">
-        <v>78.93927954167998</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P13" t="n">
-        <v>67.54619082985012</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.76548133897698</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R13" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S13" t="n">
-        <v>9.732865891523053</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T13" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03046280404232572</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.245045927358034</v>
+        <v>1.245045927358033</v>
       </c>
       <c r="H14" t="n">
-        <v>12.75082660355547</v>
+        <v>12.75082660355546</v>
       </c>
       <c r="I14" t="n">
-        <v>47.99963311447064</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J14" t="n">
         <v>105.671716777104</v>
@@ -32004,10 +32004,10 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L14" t="n">
-        <v>196.4775851815531</v>
+        <v>196.477585181553</v>
       </c>
       <c r="M14" t="n">
-        <v>218.6191706922065</v>
+        <v>218.6191706922064</v>
       </c>
       <c r="N14" t="n">
         <v>222.1566574333125</v>
@@ -32016,22 +32016,22 @@
         <v>209.776231993146</v>
       </c>
       <c r="P14" t="n">
-        <v>179.0391606614946</v>
+        <v>179.0391606614945</v>
       </c>
       <c r="Q14" t="n">
-        <v>134.450953387985</v>
+        <v>134.4509533879849</v>
       </c>
       <c r="R14" t="n">
-        <v>78.20911623440415</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S14" t="n">
         <v>28.37148406967122</v>
       </c>
       <c r="T14" t="n">
-        <v>5.450188547009795</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09960367418864267</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6661582997180276</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H15" t="n">
-        <v>6.433686736750426</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I15" t="n">
         <v>22.93571338941455</v>
       </c>
       <c r="J15" t="n">
-        <v>62.93735058871069</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K15" t="n">
         <v>107.5699566698185</v>
@@ -32089,7 +32089,7 @@
         <v>168.7893200645195</v>
       </c>
       <c r="N15" t="n">
-        <v>173.2566711183304</v>
+        <v>173.2566711183303</v>
       </c>
       <c r="O15" t="n">
         <v>158.4960056351046</v>
@@ -32098,19 +32098,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q15" t="n">
-        <v>85.03452260962052</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R15" t="n">
-        <v>41.36024952108949</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S15" t="n">
-        <v>12.3735982425695</v>
+        <v>12.37359824256949</v>
       </c>
       <c r="T15" t="n">
-        <v>2.685085427372225</v>
+        <v>2.685085427372224</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04382620392881763</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5584847407759708</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H16" t="n">
-        <v>4.96543705889909</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I16" t="n">
         <v>16.79515929533556</v>
@@ -32159,37 +32159,37 @@
         <v>39.48487117286113</v>
       </c>
       <c r="K16" t="n">
-        <v>64.88577261015368</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L16" t="n">
-        <v>83.03144955136571</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M16" t="n">
-        <v>87.54502168363693</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N16" t="n">
-        <v>85.46339674074476</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O16" t="n">
-        <v>78.93927954167997</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P16" t="n">
-        <v>67.54619082985012</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.76548133897698</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R16" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S16" t="n">
-        <v>9.732865891523051</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T16" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03046280404232572</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.245045927358034</v>
+        <v>1.245045927358033</v>
       </c>
       <c r="H17" t="n">
-        <v>12.75082660355547</v>
+        <v>12.75082660355546</v>
       </c>
       <c r="I17" t="n">
-        <v>47.99963311447064</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J17" t="n">
         <v>105.671716777104</v>
@@ -32241,10 +32241,10 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L17" t="n">
-        <v>196.4775851815531</v>
+        <v>196.477585181553</v>
       </c>
       <c r="M17" t="n">
-        <v>218.6191706922065</v>
+        <v>218.6191706922064</v>
       </c>
       <c r="N17" t="n">
         <v>222.1566574333125</v>
@@ -32253,22 +32253,22 @@
         <v>209.776231993146</v>
       </c>
       <c r="P17" t="n">
-        <v>179.0391606614946</v>
+        <v>179.0391606614945</v>
       </c>
       <c r="Q17" t="n">
-        <v>134.450953387985</v>
+        <v>134.4509533879849</v>
       </c>
       <c r="R17" t="n">
-        <v>78.20911623440415</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S17" t="n">
         <v>28.37148406967122</v>
       </c>
       <c r="T17" t="n">
-        <v>5.450188547009795</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09960367418864267</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6661582997180276</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H18" t="n">
-        <v>6.433686736750426</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I18" t="n">
         <v>22.93571338941455</v>
       </c>
       <c r="J18" t="n">
-        <v>62.93735058871069</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K18" t="n">
         <v>107.5699566698185</v>
@@ -32326,7 +32326,7 @@
         <v>168.7893200645195</v>
       </c>
       <c r="N18" t="n">
-        <v>173.2566711183304</v>
+        <v>173.2566711183303</v>
       </c>
       <c r="O18" t="n">
         <v>158.4960056351046</v>
@@ -32335,19 +32335,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q18" t="n">
-        <v>85.03452260962052</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R18" t="n">
-        <v>41.36024952108949</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S18" t="n">
-        <v>12.3735982425695</v>
+        <v>12.37359824256949</v>
       </c>
       <c r="T18" t="n">
-        <v>2.685085427372225</v>
+        <v>2.685085427372224</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04382620392881763</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5584847407759708</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H19" t="n">
-        <v>4.96543705889909</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I19" t="n">
         <v>16.79515929533556</v>
@@ -32396,37 +32396,37 @@
         <v>39.48487117286113</v>
       </c>
       <c r="K19" t="n">
-        <v>64.88577261015368</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L19" t="n">
-        <v>83.03144955136571</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M19" t="n">
-        <v>87.54502168363693</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N19" t="n">
-        <v>85.46339674074476</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O19" t="n">
-        <v>78.93927954167997</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P19" t="n">
-        <v>67.54619082985012</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.76548133897698</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R19" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S19" t="n">
-        <v>9.732865891523051</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T19" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03046280404232572</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.245045927358034</v>
+        <v>1.245045927358033</v>
       </c>
       <c r="H20" t="n">
-        <v>12.75082660355547</v>
+        <v>12.75082660355546</v>
       </c>
       <c r="I20" t="n">
-        <v>47.99963311447065</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J20" t="n">
         <v>105.671716777104</v>
@@ -32478,34 +32478,34 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L20" t="n">
-        <v>196.4775851815531</v>
+        <v>196.477585181553</v>
       </c>
       <c r="M20" t="n">
-        <v>218.6191706922065</v>
+        <v>218.6191706922064</v>
       </c>
       <c r="N20" t="n">
         <v>222.1566574333125</v>
       </c>
       <c r="O20" t="n">
-        <v>209.7762319931461</v>
+        <v>209.776231993146</v>
       </c>
       <c r="P20" t="n">
-        <v>179.0391606614946</v>
+        <v>179.0391606614945</v>
       </c>
       <c r="Q20" t="n">
-        <v>134.450953387985</v>
+        <v>134.4509533879849</v>
       </c>
       <c r="R20" t="n">
-        <v>78.20911623440416</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S20" t="n">
-        <v>28.37148406967123</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T20" t="n">
-        <v>5.450188547009796</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09960367418864269</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,28 +32542,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6661582997180278</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H21" t="n">
-        <v>6.433686736750428</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I21" t="n">
-        <v>22.93571338941456</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J21" t="n">
-        <v>62.9373505887107</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K21" t="n">
-        <v>107.5699566698186</v>
+        <v>107.5699566698185</v>
       </c>
       <c r="L21" t="n">
         <v>144.6410816997411</v>
       </c>
       <c r="M21" t="n">
-        <v>168.7893200645196</v>
+        <v>168.7893200645195</v>
       </c>
       <c r="N21" t="n">
-        <v>173.2566711183304</v>
+        <v>173.2566711183303</v>
       </c>
       <c r="O21" t="n">
         <v>158.4960056351046</v>
@@ -32572,19 +32572,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q21" t="n">
-        <v>85.03452260962054</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R21" t="n">
-        <v>41.36024952108949</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S21" t="n">
-        <v>12.3735982425695</v>
+        <v>12.37359824256949</v>
       </c>
       <c r="T21" t="n">
-        <v>2.685085427372225</v>
+        <v>2.685085427372224</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04382620392881763</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5584847407759709</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H22" t="n">
-        <v>4.965437058899091</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I22" t="n">
-        <v>16.79515929533557</v>
+        <v>16.79515929533556</v>
       </c>
       <c r="J22" t="n">
-        <v>39.48487117286114</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K22" t="n">
-        <v>64.88577261015369</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L22" t="n">
-        <v>83.03144955136572</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M22" t="n">
-        <v>87.54502168363695</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N22" t="n">
-        <v>85.46339674074477</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O22" t="n">
-        <v>78.93927954167998</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P22" t="n">
-        <v>67.54619082985012</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.76548133897698</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R22" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S22" t="n">
-        <v>9.732865891523053</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T22" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03046280404232572</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>12.75082660355547</v>
       </c>
       <c r="I41" t="n">
-        <v>47.99963311447064</v>
+        <v>47.99963311447065</v>
       </c>
       <c r="J41" t="n">
         <v>105.671716777104</v>
@@ -34146,7 +34146,7 @@
         <v>222.1566574333125</v>
       </c>
       <c r="O41" t="n">
-        <v>209.776231993146</v>
+        <v>209.7762319931461</v>
       </c>
       <c r="P41" t="n">
         <v>179.0391606614946</v>
@@ -34155,16 +34155,16 @@
         <v>134.450953387985</v>
       </c>
       <c r="R41" t="n">
-        <v>78.20911623440415</v>
+        <v>78.20911623440416</v>
       </c>
       <c r="S41" t="n">
-        <v>28.37148406967122</v>
+        <v>28.37148406967123</v>
       </c>
       <c r="T41" t="n">
-        <v>5.450188547009795</v>
+        <v>5.450188547009796</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09960367418864267</v>
+        <v>0.09960367418864269</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,25 +34201,25 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6661582997180276</v>
+        <v>0.6661582997180278</v>
       </c>
       <c r="H42" t="n">
-        <v>6.433686736750426</v>
+        <v>6.433686736750428</v>
       </c>
       <c r="I42" t="n">
-        <v>22.93571338941455</v>
+        <v>22.93571338941456</v>
       </c>
       <c r="J42" t="n">
-        <v>62.93735058871069</v>
+        <v>62.9373505887107</v>
       </c>
       <c r="K42" t="n">
-        <v>107.5699566698185</v>
+        <v>107.5699566698186</v>
       </c>
       <c r="L42" t="n">
         <v>144.6410816997411</v>
       </c>
       <c r="M42" t="n">
-        <v>168.7893200645195</v>
+        <v>168.7893200645196</v>
       </c>
       <c r="N42" t="n">
         <v>173.2566711183304</v>
@@ -34231,7 +34231,7 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q42" t="n">
-        <v>85.03452260962052</v>
+        <v>85.03452260962054</v>
       </c>
       <c r="R42" t="n">
         <v>41.36024952108949</v>
@@ -34280,31 +34280,31 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5584847407759708</v>
+        <v>0.5584847407759709</v>
       </c>
       <c r="H43" t="n">
-        <v>4.96543705889909</v>
+        <v>4.965437058899091</v>
       </c>
       <c r="I43" t="n">
-        <v>16.79515929533556</v>
+        <v>16.79515929533557</v>
       </c>
       <c r="J43" t="n">
-        <v>39.48487117286113</v>
+        <v>39.48487117286114</v>
       </c>
       <c r="K43" t="n">
-        <v>64.88577261015368</v>
+        <v>64.88577261015369</v>
       </c>
       <c r="L43" t="n">
-        <v>83.03144955136571</v>
+        <v>83.03144955136572</v>
       </c>
       <c r="M43" t="n">
-        <v>87.54502168363693</v>
+        <v>87.54502168363695</v>
       </c>
       <c r="N43" t="n">
-        <v>85.46339674074476</v>
+        <v>85.46339674074477</v>
       </c>
       <c r="O43" t="n">
-        <v>78.93927954167997</v>
+        <v>78.93927954167998</v>
       </c>
       <c r="P43" t="n">
         <v>67.54619082985012</v>
@@ -34316,7 +34316,7 @@
         <v>25.11150479889046</v>
       </c>
       <c r="S43" t="n">
-        <v>9.732865891523051</v>
+        <v>9.732865891523053</v>
       </c>
       <c r="T43" t="n">
         <v>2.386252983315511</v>
@@ -34365,7 +34365,7 @@
         <v>12.75082660355547</v>
       </c>
       <c r="I44" t="n">
-        <v>47.99963311447064</v>
+        <v>47.99963311447065</v>
       </c>
       <c r="J44" t="n">
         <v>105.671716777104</v>
@@ -34383,7 +34383,7 @@
         <v>222.1566574333125</v>
       </c>
       <c r="O44" t="n">
-        <v>209.776231993146</v>
+        <v>209.7762319931461</v>
       </c>
       <c r="P44" t="n">
         <v>179.0391606614946</v>
@@ -34392,16 +34392,16 @@
         <v>134.450953387985</v>
       </c>
       <c r="R44" t="n">
-        <v>78.20911623440415</v>
+        <v>78.20911623440416</v>
       </c>
       <c r="S44" t="n">
-        <v>28.37148406967122</v>
+        <v>28.37148406967123</v>
       </c>
       <c r="T44" t="n">
-        <v>5.450188547009795</v>
+        <v>5.450188547009796</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09960367418864267</v>
+        <v>0.09960367418864269</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,25 +34438,25 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6661582997180276</v>
+        <v>0.6661582997180278</v>
       </c>
       <c r="H45" t="n">
-        <v>6.433686736750426</v>
+        <v>6.433686736750428</v>
       </c>
       <c r="I45" t="n">
-        <v>22.93571338941455</v>
+        <v>22.93571338941456</v>
       </c>
       <c r="J45" t="n">
-        <v>62.93735058871069</v>
+        <v>62.9373505887107</v>
       </c>
       <c r="K45" t="n">
-        <v>107.5699566698185</v>
+        <v>107.5699566698186</v>
       </c>
       <c r="L45" t="n">
         <v>144.6410816997411</v>
       </c>
       <c r="M45" t="n">
-        <v>168.7893200645195</v>
+        <v>168.7893200645196</v>
       </c>
       <c r="N45" t="n">
         <v>173.2566711183304</v>
@@ -34468,7 +34468,7 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q45" t="n">
-        <v>85.03452260962052</v>
+        <v>85.03452260962054</v>
       </c>
       <c r="R45" t="n">
         <v>41.36024952108949</v>
@@ -34517,31 +34517,31 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5584847407759708</v>
+        <v>0.5584847407759709</v>
       </c>
       <c r="H46" t="n">
-        <v>4.96543705889909</v>
+        <v>4.965437058899091</v>
       </c>
       <c r="I46" t="n">
-        <v>16.79515929533556</v>
+        <v>16.79515929533557</v>
       </c>
       <c r="J46" t="n">
-        <v>39.48487117286113</v>
+        <v>39.48487117286114</v>
       </c>
       <c r="K46" t="n">
-        <v>64.88577261015368</v>
+        <v>64.88577261015369</v>
       </c>
       <c r="L46" t="n">
-        <v>83.03144955136571</v>
+        <v>83.03144955136572</v>
       </c>
       <c r="M46" t="n">
-        <v>87.54502168363693</v>
+        <v>87.54502168363695</v>
       </c>
       <c r="N46" t="n">
-        <v>85.46339674074476</v>
+        <v>85.46339674074477</v>
       </c>
       <c r="O46" t="n">
-        <v>78.93927954167997</v>
+        <v>78.93927954167998</v>
       </c>
       <c r="P46" t="n">
         <v>67.54619082985012</v>
@@ -34553,7 +34553,7 @@
         <v>25.11150479889046</v>
       </c>
       <c r="S46" t="n">
-        <v>9.732865891523051</v>
+        <v>9.732865891523053</v>
       </c>
       <c r="T46" t="n">
         <v>2.386252983315511</v>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L2" t="n">
         <v>204.4954085367308</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.5579630241179461</v>
       </c>
       <c r="N3" t="n">
-        <v>141.6613176266638</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
         <v>270.5854737144654</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L6" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>274.2838073416025</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="N6" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P6" t="n">
-        <v>16.31652810451531</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
+        <v>90.02410328955504</v>
+      </c>
+      <c r="N9" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="N9" t="n">
-        <v>60.48575168759873</v>
       </c>
       <c r="O9" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>105.0124396425416</v>
       </c>
       <c r="K11" t="n">
-        <v>280.898135187325</v>
+        <v>280.8981351873249</v>
       </c>
       <c r="L11" t="n">
-        <v>400.972993718284</v>
+        <v>400.9729937182839</v>
       </c>
       <c r="M11" t="n">
-        <v>461.5256681281614</v>
+        <v>461.5256681281613</v>
       </c>
       <c r="N11" t="n">
-        <v>453.3197218150999</v>
+        <v>453.3197218150998</v>
       </c>
       <c r="O11" t="n">
-        <v>381.4626643702567</v>
+        <v>381.4626643702566</v>
       </c>
       <c r="P11" t="n">
-        <v>288.2576462984488</v>
+        <v>288.2576462984487</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.5104960466976</v>
+        <v>138.5104960466975</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>51.39564078603612</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K12" t="n">
         <v>248.2184001629003</v>
       </c>
       <c r="L12" t="n">
-        <v>395.2245205299613</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M12" t="n">
-        <v>514.5419032905517</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N12" t="n">
         <v>543.714571154376</v>
       </c>
       <c r="O12" t="n">
-        <v>429.08147934957</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P12" t="n">
-        <v>327.7832499334201</v>
+        <v>308.7735493767197</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>50.11136289232034</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L13" t="n">
         <v>120.492579780375</v>
@@ -35585,7 +35585,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P13" t="n">
-        <v>73.66821272853396</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35655,19 +35655,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M14" t="n">
-        <v>461.5256681281614</v>
+        <v>461.5256681281613</v>
       </c>
       <c r="N14" t="n">
-        <v>453.3197218150999</v>
+        <v>453.3197218150998</v>
       </c>
       <c r="O14" t="n">
-        <v>381.4626643702567</v>
+        <v>381.4626643702566</v>
       </c>
       <c r="P14" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.5104960466976</v>
+        <v>138.5104960466975</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>70.40534134273584</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K15" t="n">
         <v>248.2184001629003</v>
       </c>
       <c r="L15" t="n">
-        <v>395.2245205299613</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M15" t="n">
-        <v>328.4995306128189</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N15" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O15" t="n">
         <v>429.0814793495699</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>50.11136289232033</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L16" t="n">
         <v>120.492579780375</v>
@@ -35822,7 +35822,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P16" t="n">
-        <v>73.66821272853396</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35892,19 +35892,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M17" t="n">
-        <v>461.5256681281614</v>
+        <v>461.5256681281613</v>
       </c>
       <c r="N17" t="n">
-        <v>453.3197218150999</v>
+        <v>453.3197218150998</v>
       </c>
       <c r="O17" t="n">
-        <v>381.4626643702567</v>
+        <v>381.4626643702566</v>
       </c>
       <c r="P17" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.5104960466976</v>
+        <v>138.5104960466975</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K18" t="n">
         <v>248.2184001629003</v>
       </c>
       <c r="L18" t="n">
-        <v>395.2245205299613</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M18" t="n">
         <v>514.5419032905515</v>
       </c>
       <c r="N18" t="n">
-        <v>428.0775398193794</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O18" t="n">
         <v>429.0814793495699</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>50.11136289232033</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L19" t="n">
         <v>120.492579780375</v>
@@ -36059,7 +36059,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P19" t="n">
-        <v>73.66821272853396</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>105.0124396425416</v>
       </c>
       <c r="K20" t="n">
-        <v>280.898135187325</v>
+        <v>280.8981351873249</v>
       </c>
       <c r="L20" t="n">
-        <v>400.972993718284</v>
+        <v>400.9729937182839</v>
       </c>
       <c r="M20" t="n">
-        <v>461.5256681281614</v>
+        <v>461.5256681281613</v>
       </c>
       <c r="N20" t="n">
-        <v>453.3197218150999</v>
+        <v>453.3197218150998</v>
       </c>
       <c r="O20" t="n">
-        <v>381.4626643702567</v>
+        <v>381.4626643702566</v>
       </c>
       <c r="P20" t="n">
-        <v>288.2576462984488</v>
+        <v>288.2576462984487</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.5104960466976</v>
+        <v>138.5104960466975</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>248.2184001629003</v>
       </c>
       <c r="L21" t="n">
-        <v>395.2245205299613</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M21" t="n">
-        <v>514.5419032905517</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N21" t="n">
         <v>543.714571154376</v>
       </c>
       <c r="O21" t="n">
-        <v>429.08147934957</v>
+        <v>429.0814793495699</v>
       </c>
       <c r="P21" t="n">
         <v>327.7832499334201</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.39564078603594</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>50.11136289232034</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L22" t="n">
         <v>120.492579780375</v>
@@ -36296,7 +36296,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P22" t="n">
-        <v>73.66821272853396</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>70.40534134273584</v>
       </c>
       <c r="K24" t="n">
         <v>248.2184001629003</v>
@@ -36454,10 +36454,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P24" t="n">
-        <v>327.7832499334201</v>
+        <v>141.7408772556869</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.39564078603594</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>70.40534134273584</v>
       </c>
       <c r="K27" t="n">
         <v>248.2184001629003</v>
@@ -36682,7 +36682,7 @@
         <v>395.2245205299613</v>
       </c>
       <c r="M27" t="n">
-        <v>514.5419032905515</v>
+        <v>328.4995306128181</v>
       </c>
       <c r="N27" t="n">
         <v>543.714571154376</v>
@@ -36694,7 +36694,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,10 +36919,10 @@
         <v>395.2245205299613</v>
       </c>
       <c r="M30" t="n">
-        <v>514.5419032905515</v>
+        <v>328.4995306128181</v>
       </c>
       <c r="N30" t="n">
-        <v>357.6721984766427</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O30" t="n">
         <v>429.0814793495699</v>
@@ -37156,10 +37156,10 @@
         <v>395.2245205299613</v>
       </c>
       <c r="M33" t="n">
-        <v>514.5419032905515</v>
+        <v>328.4995306128189</v>
       </c>
       <c r="N33" t="n">
-        <v>357.6721984766427</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O33" t="n">
         <v>429.0814793495699</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>70.40534134273584</v>
       </c>
       <c r="K36" t="n">
         <v>248.2184001629003</v>
@@ -37396,7 +37396,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N36" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766427</v>
       </c>
       <c r="O36" t="n">
         <v>429.0814793495699</v>
@@ -37405,7 +37405,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.39564078603594</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37633,13 +37633,13 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N39" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766427</v>
       </c>
       <c r="O39" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P39" t="n">
-        <v>141.7408772556869</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q39" t="n">
         <v>167.0326721210326</v>
@@ -37782,10 +37782,10 @@
         <v>105.0124396425416</v>
       </c>
       <c r="K41" t="n">
-        <v>280.8981351873247</v>
+        <v>280.898135187325</v>
       </c>
       <c r="L41" t="n">
-        <v>400.9729937182839</v>
+        <v>400.972993718284</v>
       </c>
       <c r="M41" t="n">
         <v>461.5256681281614</v>
@@ -37797,7 +37797,7 @@
         <v>381.4626643702567</v>
       </c>
       <c r="P41" t="n">
-        <v>288.2576462984487</v>
+        <v>288.2576462984488</v>
       </c>
       <c r="Q41" t="n">
         <v>138.5104960466976</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>70.40534134273584</v>
+        <v>70.40534134273585</v>
       </c>
       <c r="K42" t="n">
-        <v>229.2086996061997</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L42" t="n">
         <v>395.2245205299613</v>
       </c>
       <c r="M42" t="n">
-        <v>514.5419032905515</v>
+        <v>514.5419032905517</v>
       </c>
       <c r="N42" t="n">
-        <v>543.714571154376</v>
+        <v>357.672198476643</v>
       </c>
       <c r="O42" t="n">
-        <v>429.0814793495699</v>
+        <v>429.08147934957</v>
       </c>
       <c r="P42" t="n">
         <v>327.7832499334201</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>50.11136289232033</v>
+        <v>50.11136289232034</v>
       </c>
       <c r="L43" t="n">
         <v>120.492579780375</v>
@@ -38019,10 +38019,10 @@
         <v>105.0124396425416</v>
       </c>
       <c r="K44" t="n">
-        <v>280.8981351873249</v>
+        <v>280.898135187325</v>
       </c>
       <c r="L44" t="n">
-        <v>400.9729937182839</v>
+        <v>400.972993718284</v>
       </c>
       <c r="M44" t="n">
         <v>461.5256681281614</v>
@@ -38034,10 +38034,10 @@
         <v>381.4626643702567</v>
       </c>
       <c r="P44" t="n">
-        <v>288.2576462984487</v>
+        <v>288.2576462984488</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.5104960466976</v>
+        <v>138.5104960466971</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>70.40534134273584</v>
+        <v>70.40534134273585</v>
       </c>
       <c r="K45" t="n">
-        <v>62.17602748516684</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L45" t="n">
         <v>395.2245205299613</v>
       </c>
       <c r="M45" t="n">
-        <v>514.5419032905515</v>
+        <v>514.5419032905517</v>
       </c>
       <c r="N45" t="n">
-        <v>543.714571154376</v>
+        <v>357.672198476643</v>
       </c>
       <c r="O45" t="n">
-        <v>429.0814793495699</v>
+        <v>429.08147934957</v>
       </c>
       <c r="P45" t="n">
         <v>327.7832499334201</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>50.11136289232033</v>
+        <v>50.11136289232034</v>
       </c>
       <c r="L46" t="n">
         <v>120.492579780375</v>
